--- a/src/main/resources/fish_2406.xlsx
+++ b/src/main/resources/fish_2406.xlsx
@@ -839,11 +839,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>消耗品，使用后姐姐会随机一个幸运数字，15分钟内命中小于该幸运数字的目标失去自我3分钟，并获得目标的币币（随机</t>
     </r>
     <r>
@@ -1518,12 +1513,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>「可乐华夫饼」夏季限定：将你的可乐</t>
     </r>
     <r>
@@ -3441,7 +3430,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3500,13 +3489,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -3524,13 +3506,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3689,7 +3664,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3777,12 +3752,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4006,19 +3975,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4027,127 +4005,118 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4206,7 +4175,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4233,22 +4202,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11678,10 +11647,10 @@
   <sheetPr/>
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78333333333333" defaultRowHeight="14.25"/>
@@ -12857,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="34.75" customHeight="1" spans="1:12">
+    <row r="42" ht="63" customHeight="1" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>

--- a/src/main/resources/fish_2406.xlsx
+++ b/src/main/resources/fish_2406.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="702">
   <si>
     <t>等级</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>特殊标记</t>
+  </si>
+  <si>
+    <t>保护动物</t>
   </si>
   <si>
     <t>属性</t>
@@ -839,6 +842,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>消耗品，使用后姐姐会随机一个幸运数字，15分钟内命中小于该幸运数字的目标失去自我3分钟，并获得目标的币币（随机</t>
     </r>
     <r>
@@ -1513,6 +1521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>「可乐华夫饼」夏季限定：将你的可乐</t>
     </r>
     <r>
@@ -4560,12 +4574,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomLeft" activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4579,18 +4593,18 @@
     <col min="8" max="9" width="6.20833333333333" style="14" customWidth="1"/>
     <col min="10" max="10" width="5.78333333333333" style="14" customWidth="1"/>
     <col min="11" max="11" width="4.78333333333333" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.425" style="14" customWidth="1"/>
-    <col min="13" max="13" width="8.35833333333333" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8.20833333333333" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.425" style="14" customWidth="1"/>
-    <col min="16" max="16" width="9" style="14" customWidth="1"/>
-    <col min="17" max="18" width="12.7833333333333" style="30" customWidth="1"/>
-    <col min="19" max="19" width="14.3583333333333" style="14" customWidth="1"/>
-    <col min="20" max="20" width="17" style="14" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="14"/>
+    <col min="12" max="13" width="8.425" style="14" customWidth="1"/>
+    <col min="14" max="14" width="8.35833333333333" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.20833333333333" style="14" customWidth="1"/>
+    <col min="16" max="16" width="8.425" style="14" customWidth="1"/>
+    <col min="17" max="17" width="9" style="14" customWidth="1"/>
+    <col min="18" max="19" width="12.7833333333333" style="30" customWidth="1"/>
+    <col min="20" max="20" width="14.3583333333333" style="14" customWidth="1"/>
+    <col min="21" max="21" width="17" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="28.5" spans="1:18">
+    <row r="1" s="29" customFormat="1" ht="28.5" spans="1:19">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +4644,7 @@
       <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -4639,22 +4653,25 @@
       <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7">
         <v>134</v>
       </c>
-      <c r="R1" s="7">
+      <c r="S1" s="7">
         <v>161</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="1" spans="1:21">
+    <row r="2" s="29" customFormat="1" spans="1:22">
       <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="22">
         <v>-1</v>
@@ -4686,41 +4703,42 @@
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="22">
-        <f t="shared" ref="N2:N10" si="4">D2*E2</f>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22">
+        <f t="shared" ref="O2:O10" si="4">D2*E2</f>
         <v>-9</v>
       </c>
-      <c r="O2" s="22">
-        <f t="shared" ref="O2:O10" si="5">D2*F2</f>
+      <c r="P2" s="22">
+        <f t="shared" ref="P2:P10" si="5">D2*F2</f>
         <v>-9</v>
       </c>
-      <c r="P2" s="3">
-        <f>AVERAGE(N2,O2)</f>
+      <c r="Q2" s="3">
+        <f>AVERAGE(O2,P2)</f>
         <v>-9</v>
       </c>
-      <c r="Q2" s="35">
-        <f t="shared" ref="Q2:R9" si="6">IF($A2&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K2+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A2,$K$2:$K$214,"&gt;="&amp;$K2)))</f>
+      <c r="R2" s="35">
+        <f t="shared" ref="R2:S9" si="6">IF($A2&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K2+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A2,$K$2:$K$214,"&gt;="&amp;$K2)))</f>
         <v>0.00977443609022556</v>
       </c>
-      <c r="R2" s="35">
+      <c r="S2" s="35">
         <f t="shared" si="6"/>
         <v>0.008008837337752</v>
       </c>
-      <c r="S2" s="14"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="22">
         <f t="shared" ref="D3:D10" si="7">A3</f>
@@ -4751,40 +4769,40 @@
       <c r="K3" s="22">
         <v>10</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O3" s="22">
+      <c r="P3" s="22">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="P3" s="3">
-        <f t="shared" ref="P3:P6" si="8">AVERAGE(N3,O3)</f>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q6" si="8">AVERAGE(O3,P3)</f>
         <v>8.5</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="R3" s="35">
         <f t="shared" si="6"/>
         <v>0.0105263157894737</v>
       </c>
-      <c r="R3" s="35">
+      <c r="S3" s="35">
         <f t="shared" si="6"/>
         <v>0.00866473349903342</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="V3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="22">
         <f t="shared" si="7"/>
@@ -4817,36 +4835,37 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="22">
+      <c r="N4" s="3"/>
+      <c r="O4" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="22">
+      <c r="P4" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="R4" s="35">
         <f t="shared" si="6"/>
         <v>0.0117078410311493</v>
       </c>
-      <c r="R4" s="35">
+      <c r="S4" s="35">
         <f t="shared" si="6"/>
         <v>0.00966583816625242</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="22">
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="22">
         <v>-1</v>
@@ -4878,36 +4897,37 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="22">
+      <c r="N5" s="3"/>
+      <c r="O5" s="22">
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="O5" s="22">
+      <c r="P5" s="22">
         <f t="shared" si="5"/>
         <v>-14</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="8"/>
         <v>-10.5</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="R5" s="35">
         <f t="shared" si="6"/>
         <v>0.0131578947368421</v>
       </c>
-      <c r="R5" s="35">
+      <c r="S5" s="35">
         <f t="shared" si="6"/>
         <v>0.0109085887876277</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" si="7"/>
@@ -4940,36 +4960,37 @@
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="22">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O6" s="22">
+      <c r="P6" s="22">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="R6" s="35">
         <f t="shared" si="6"/>
         <v>0.0151127819548872</v>
       </c>
-      <c r="R6" s="35">
+      <c r="S6" s="35">
         <f t="shared" si="6"/>
         <v>0.0125932062966031</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="22">
         <f t="shared" si="7"/>
@@ -5002,36 +5023,37 @@
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="22">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O7" s="22">
+      <c r="P7" s="22">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" ref="P7:P32" si="13">AVERAGE(N7,O7)</f>
+      <c r="Q7" s="3">
+        <f t="shared" ref="Q7:Q32" si="13">AVERAGE(O7,P7)</f>
         <v>18</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="R7" s="35">
         <f t="shared" si="6"/>
         <v>0.0166353383458647</v>
       </c>
-      <c r="R7" s="35">
+      <c r="S7" s="35">
         <f t="shared" si="6"/>
         <v>0.0140845070422535</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="22">
         <f t="shared" si="7"/>
@@ -5066,36 +5088,37 @@
         <v>1</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="22">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O8" s="22">
+      <c r="P8" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="R8" s="35">
         <f t="shared" si="6"/>
         <v>0.0204260651629073</v>
       </c>
-      <c r="R8" s="35">
+      <c r="S8" s="35">
         <f t="shared" si="6"/>
         <v>0.0174905643008377</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="22">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="22">
         <f t="shared" si="7"/>
@@ -5130,36 +5153,37 @@
         <v>1</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O9" s="22">
+      <c r="P9" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="R9" s="35">
         <f t="shared" si="6"/>
         <v>0.0270676691729323</v>
       </c>
-      <c r="R9" s="35">
+      <c r="S9" s="35">
         <f t="shared" si="6"/>
         <v>0.0236122618061309</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" si="7"/>
@@ -5194,36 +5218,37 @@
         <v>1</v>
       </c>
       <c r="M10" s="22"/>
-      <c r="N10" s="22">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O10" s="22">
+      <c r="P10" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="35">
-        <f t="shared" ref="Q10:R10" si="14">IF($A10&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K10+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A10,$K$2:$K$214,"&gt;="&amp;$K10)))</f>
+      <c r="R10" s="35">
+        <f t="shared" ref="R10:S10" si="14">IF($A10&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K10+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A10,$K$2:$K$214,"&gt;="&amp;$K10)))</f>
         <v>0.0443609022556391</v>
       </c>
-      <c r="R10" s="35">
+      <c r="S10" s="35">
         <f t="shared" si="14"/>
         <v>0.04004418668876</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="22">
         <v>-2</v>
@@ -5255,36 +5280,37 @@
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="22">
-        <f t="shared" ref="N11:N33" si="15">D11*E11</f>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22">
+        <f t="shared" ref="O11:O33" si="15">D11*E11</f>
         <v>-28</v>
       </c>
-      <c r="O11" s="22">
-        <f t="shared" ref="O11:O33" si="16">D11*F11</f>
+      <c r="P11" s="22">
+        <f t="shared" ref="P11:P33" si="16">D11*F11</f>
         <v>-46</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="13"/>
         <v>-37</v>
       </c>
-      <c r="Q11" s="35">
-        <f t="shared" ref="Q11:R30" si="17">IF($A11&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K11+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A11,$K$2:$K$214,"&gt;="&amp;$K11)))</f>
+      <c r="R11" s="35">
+        <f t="shared" ref="R11:S30" si="17">IF($A11&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K11+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A11,$K$2:$K$214,"&gt;="&amp;$K11)))</f>
         <v>0.0089390142021721</v>
       </c>
-      <c r="R11" s="35">
+      <c r="S11" s="35">
         <f t="shared" si="17"/>
         <v>0.00739513332719629</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" ref="D12:D18" si="18">A12</f>
@@ -5317,36 +5343,37 @@
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="22">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="O12" s="22">
+      <c r="P12" s="22">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="R12" s="35">
         <f t="shared" si="17"/>
         <v>0.0100093984962406</v>
       </c>
-      <c r="R12" s="35">
+      <c r="S12" s="35">
         <f t="shared" si="17"/>
         <v>0.00828500414250207</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="22">
         <v>2</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="18"/>
@@ -5379,36 +5406,37 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="22">
+      <c r="N13" s="3"/>
+      <c r="O13" s="22">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13" s="22">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="R13" s="35">
         <f t="shared" si="17"/>
         <v>0.0105800214822771</v>
       </c>
-      <c r="R13" s="35">
+      <c r="S13" s="35">
         <f t="shared" si="17"/>
         <v>0.00883733775200221</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="22">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="18"/>
@@ -5441,36 +5469,37 @@
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="22">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="O14" s="22">
+      <c r="P14" s="22">
         <f t="shared" si="16"/>
         <v>58</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="R14" s="35">
         <f t="shared" si="17"/>
         <v>0.0118421052631579</v>
       </c>
-      <c r="R14" s="35">
+      <c r="S14" s="35">
         <f t="shared" si="17"/>
         <v>0.00994200497100249</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="22">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="22">
         <f t="shared" si="18"/>
@@ -5501,37 +5530,37 @@
       <c r="K15" s="22">
         <v>50</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="O15" s="22">
+      <c r="P15" s="22">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="R15" s="35">
         <f t="shared" si="17"/>
         <v>0.0138345864661654</v>
       </c>
-      <c r="R15" s="35">
+      <c r="S15" s="35">
         <f t="shared" si="17"/>
         <v>0.0116542391604529</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="22">
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="22">
         <f t="shared" si="18"/>
@@ -5564,37 +5593,38 @@
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="22">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="O16" s="22">
+      <c r="P16" s="22">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="R16" s="35">
         <f t="shared" si="17"/>
         <v>0.0147556390977444</v>
       </c>
-      <c r="R16" s="35">
+      <c r="S16" s="35">
         <f t="shared" si="17"/>
         <v>0.0127036730185032</v>
       </c>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="22">
         <v>2</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="22">
         <f t="shared" si="18"/>
@@ -5627,36 +5657,37 @@
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="22">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17" s="22">
         <f t="shared" si="16"/>
         <v>36</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="R17" s="35">
         <f t="shared" si="17"/>
         <v>0.018796992481203</v>
       </c>
-      <c r="R17" s="35">
+      <c r="S17" s="35">
         <f t="shared" si="17"/>
         <v>0.0162938414802541</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="22">
         <v>2</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="22">
         <f t="shared" si="18"/>
@@ -5689,36 +5720,37 @@
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="22">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="O18" s="22">
+      <c r="P18" s="22">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="R18" s="35">
         <f t="shared" si="17"/>
         <v>0.0242481203007519</v>
       </c>
-      <c r="R18" s="35">
+      <c r="S18" s="35">
         <f t="shared" si="17"/>
         <v>0.0215410107705054</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="22">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="22">
         <v>1</v>
@@ -5752,36 +5784,37 @@
         <v>1</v>
       </c>
       <c r="M19" s="22"/>
-      <c r="N19" s="22">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19" s="22">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="R19" s="35">
         <f t="shared" si="17"/>
         <v>0.0409774436090226</v>
       </c>
-      <c r="R19" s="35">
+      <c r="S19" s="35">
         <f t="shared" si="17"/>
         <v>0.0375586854460094</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="22">
         <v>3</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="22">
         <v>-3</v>
@@ -5813,36 +5846,37 @@
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="22">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22">
         <f t="shared" si="15"/>
         <v>-78</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20" s="22">
         <f t="shared" si="16"/>
         <v>-117</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="13"/>
         <v>-97.5</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="R20" s="35">
         <f t="shared" si="17"/>
         <v>0.00852130325814536</v>
       </c>
-      <c r="R20" s="35">
+      <c r="S20" s="35">
         <f t="shared" si="17"/>
         <v>0.00708828132191844</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="22">
         <v>3</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22">
         <v>1</v>
@@ -5876,36 +5910,37 @@
         <v>1</v>
       </c>
       <c r="M21" s="22"/>
-      <c r="N21" s="22">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="O21" s="22">
+      <c r="P21" s="22">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="R21" s="35">
         <f t="shared" si="17"/>
         <v>0.00852130325814536</v>
       </c>
-      <c r="R21" s="35">
+      <c r="S21" s="35">
         <f t="shared" si="17"/>
         <v>0.00708828132191844</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="22">
         <v>3</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="22">
         <f>A22</f>
@@ -5938,36 +5973,37 @@
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="22">
+      <c r="N22" s="22"/>
+      <c r="O22" s="22">
         <f t="shared" si="15"/>
         <v>111</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22" s="22">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <f t="shared" si="13"/>
         <v>111</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="R22" s="35">
         <f t="shared" si="17"/>
         <v>0.0104189044038668</v>
       </c>
-      <c r="R22" s="35">
+      <c r="S22" s="35">
         <f t="shared" si="17"/>
         <v>0.00871898054996647</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="22">
         <v>3</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="22">
         <v>-5</v>
@@ -5999,36 +6035,37 @@
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="22">
+      <c r="N23" s="22"/>
+      <c r="O23" s="22">
         <f t="shared" si="15"/>
         <v>-150</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="22">
         <f t="shared" si="16"/>
         <v>-170</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <f t="shared" si="13"/>
         <v>-160</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="R23" s="35">
         <f t="shared" si="17"/>
         <v>0.0118421052631579</v>
       </c>
-      <c r="R23" s="35">
+      <c r="S23" s="35">
         <f t="shared" si="17"/>
         <v>0.00994200497100249</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="22">
         <v>3</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="22">
         <f t="shared" ref="D24:D64" si="19">A24</f>
@@ -6061,36 +6098,37 @@
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="22">
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
         <f t="shared" si="15"/>
         <v>69</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24" s="22">
         <f t="shared" si="16"/>
         <v>93</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <f t="shared" si="13"/>
         <v>81</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="R24" s="35">
         <f t="shared" si="17"/>
         <v>0.0138345864661654</v>
       </c>
-      <c r="R24" s="35">
+      <c r="S24" s="35">
         <f t="shared" si="17"/>
         <v>0.0116542391604529</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" s="22">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="22">
         <f t="shared" si="19"/>
@@ -6123,38 +6161,39 @@
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="22">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <f t="shared" si="15"/>
         <v>99</v>
       </c>
-      <c r="O25" s="22">
+      <c r="P25" s="22">
         <f t="shared" si="16"/>
         <v>108</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <f t="shared" si="13"/>
         <v>103.5</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="R25" s="35">
         <f t="shared" si="17"/>
         <v>0.0154135338345865</v>
       </c>
-      <c r="R25" s="35">
+      <c r="S25" s="35">
         <f t="shared" si="17"/>
         <v>0.0131869649268158</v>
       </c>
-      <c r="T25" s="22"/>
       <c r="U25" s="22"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="V25" s="22"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="22">
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" si="19"/>
@@ -6187,36 +6226,37 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
         <f t="shared" si="15"/>
         <v>99</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <f t="shared" si="16"/>
         <v>108</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <f t="shared" si="13"/>
         <v>103.5</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="R26" s="35">
         <f t="shared" si="17"/>
         <v>0.0180451127819549</v>
       </c>
-      <c r="R26" s="35">
+      <c r="S26" s="35">
         <f t="shared" si="17"/>
         <v>0.0157415078707539</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="22">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="22">
         <v>1</v>
@@ -6250,36 +6290,37 @@
         <v>1</v>
       </c>
       <c r="M27" s="22"/>
-      <c r="N27" s="22">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O27" s="22">
+      <c r="P27" s="22">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="R27" s="35">
         <f t="shared" si="17"/>
         <v>0.0223684210526316</v>
       </c>
-      <c r="R27" s="35">
+      <c r="S27" s="35">
         <f t="shared" si="17"/>
         <v>0.020160176746755</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="22">
         <v>3</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" si="19"/>
@@ -6312,36 +6353,37 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="22">
+      <c r="N28" s="22"/>
+      <c r="O28" s="22">
         <f t="shared" si="15"/>
         <v>66</v>
       </c>
-      <c r="O28" s="22">
+      <c r="P28" s="22">
         <f t="shared" si="16"/>
         <v>102</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="R28" s="35">
         <f t="shared" si="17"/>
         <v>0.037593984962406</v>
       </c>
-      <c r="R28" s="35">
+      <c r="S28" s="35">
         <f t="shared" si="17"/>
         <v>0.0350731842032588</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="22">
         <v>4</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="22">
         <f t="shared" si="19"/>
@@ -6374,36 +6416,37 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="22">
+      <c r="N29" s="22"/>
+      <c r="O29" s="22">
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="O29" s="22">
+      <c r="P29" s="22">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="R29" s="35">
         <f t="shared" si="17"/>
         <v>0.00839598997493734</v>
       </c>
-      <c r="R29" s="35">
+      <c r="S29" s="35">
         <f t="shared" si="17"/>
         <v>0.00699622572033508</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="22">
         <v>4</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="22">
         <f t="shared" si="19"/>
@@ -6436,36 +6479,37 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="22">
+      <c r="N30" s="22"/>
+      <c r="O30" s="22">
         <f t="shared" si="15"/>
         <v>140</v>
       </c>
-      <c r="O30" s="22">
+      <c r="P30" s="22">
         <f t="shared" si="16"/>
         <v>156</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="R30" s="35">
         <f t="shared" si="17"/>
         <v>0.00911654135338346</v>
       </c>
-      <c r="R30" s="35">
+      <c r="S30" s="35">
         <f t="shared" si="17"/>
         <v>0.00762910798122066</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="22">
         <v>4</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="22">
         <f t="shared" si="19"/>
@@ -6498,36 +6542,37 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="22">
+      <c r="N31" s="22"/>
+      <c r="O31" s="22">
         <f t="shared" si="15"/>
         <v>168</v>
       </c>
-      <c r="O31" s="22">
+      <c r="P31" s="22">
         <f t="shared" si="16"/>
         <v>188</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <f t="shared" si="13"/>
         <v>178</v>
       </c>
-      <c r="Q31" s="35">
-        <f t="shared" ref="Q31:R50" si="20">IF($A31&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K31+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A31,$K$2:$K$214,"&gt;="&amp;$K31)))</f>
+      <c r="R31" s="35">
+        <f t="shared" ref="R31:S50" si="20">IF($A31&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K31+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A31,$K$2:$K$214,"&gt;="&amp;$K31)))</f>
         <v>0.00961331901181525</v>
       </c>
-      <c r="R31" s="35">
+      <c r="S31" s="35">
         <f t="shared" si="20"/>
         <v>0.00812719453978774</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:18">
+    <row r="32" ht="28.5" spans="1:19">
       <c r="A32" s="22">
         <v>4</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="22">
         <f t="shared" si="19"/>
@@ -6560,36 +6605,37 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="22">
+      <c r="N32" s="22"/>
+      <c r="O32" s="22">
         <f t="shared" si="15"/>
         <v>124</v>
       </c>
-      <c r="O32" s="22">
+      <c r="P32" s="22">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="R32" s="35">
         <f t="shared" si="20"/>
         <v>0.0109022556390977</v>
       </c>
-      <c r="R32" s="35">
+      <c r="S32" s="35">
         <f t="shared" si="20"/>
         <v>0.00925158795912731</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" s="22">
         <v>4</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="19"/>
@@ -6622,38 +6668,39 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="22">
+      <c r="N33" s="22"/>
+      <c r="O33" s="22">
         <f t="shared" si="15"/>
         <v>128</v>
       </c>
-      <c r="O33" s="22">
+      <c r="P33" s="22">
         <f t="shared" si="16"/>
         <v>184</v>
       </c>
-      <c r="P33" s="3">
-        <f t="shared" ref="P33:P61" si="25">AVERAGE(N33,O33)</f>
+      <c r="Q33" s="3">
+        <f t="shared" ref="Q33:Q61" si="25">AVERAGE(O33,P33)</f>
         <v>156</v>
       </c>
-      <c r="Q33" s="35">
+      <c r="R33" s="35">
         <f t="shared" si="20"/>
         <v>0.0119548872180451</v>
       </c>
-      <c r="R33" s="35">
+      <c r="S33" s="35">
         <f t="shared" si="20"/>
         <v>0.0102734051367026</v>
       </c>
-      <c r="T33" s="22"/>
       <c r="U33" s="22"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="V33" s="22"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="22">
         <v>4</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="22">
         <f t="shared" si="19"/>
@@ -6686,36 +6733,37 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="22">
-        <f t="shared" ref="N34:N61" si="26">D34*E34</f>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22">
+        <f t="shared" ref="O34:O61" si="26">D34*E34</f>
         <v>124</v>
       </c>
-      <c r="O34" s="22">
-        <f t="shared" ref="O34:O61" si="27">D34*F34</f>
+      <c r="P34" s="22">
+        <f t="shared" ref="P34:P61" si="27">D34*F34</f>
         <v>192</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <f t="shared" si="25"/>
         <v>158</v>
       </c>
-      <c r="Q34" s="35">
+      <c r="R34" s="35">
         <f t="shared" si="20"/>
         <v>0.0138157894736842</v>
       </c>
-      <c r="R34" s="35">
+      <c r="S34" s="35">
         <f t="shared" si="20"/>
         <v>0.012013256006628</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:18">
+    <row r="35" ht="28.5" spans="1:19">
       <c r="A35" s="22">
         <v>4</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D35" s="22">
         <f t="shared" si="19"/>
@@ -6748,36 +6796,37 @@
       </c>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="22">
+      <c r="N35" s="22"/>
+      <c r="O35" s="22">
         <f t="shared" si="26"/>
         <v>128</v>
       </c>
-      <c r="O35" s="22">
+      <c r="P35" s="22">
         <f t="shared" si="27"/>
         <v>196</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <f t="shared" si="25"/>
         <v>162</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="R35" s="35">
         <f t="shared" si="20"/>
         <v>0.0154135338345865</v>
       </c>
-      <c r="R35" s="35">
+      <c r="S35" s="35">
         <f t="shared" si="20"/>
         <v>0.0138083402375035</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" s="22">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
@@ -6811,36 +6860,37 @@
         <v>1</v>
       </c>
       <c r="M36" s="22"/>
-      <c r="N36" s="22">
+      <c r="N36" s="22"/>
+      <c r="O36" s="22">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="O36" s="22">
+      <c r="P36" s="22">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Q36" s="3">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="Q36" s="35">
+      <c r="R36" s="35">
         <f t="shared" si="20"/>
         <v>0.0195488721804511</v>
       </c>
-      <c r="R36" s="35">
+      <c r="S36" s="35">
         <f t="shared" si="20"/>
         <v>0.0180889257111295</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:18">
+    <row r="37" ht="28.5" spans="1:19">
       <c r="A37" s="22">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="22">
         <f t="shared" si="19"/>
@@ -6873,36 +6923,37 @@
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="22">
+      <c r="N37" s="22"/>
+      <c r="O37" s="22">
         <f t="shared" si="26"/>
         <v>128</v>
       </c>
-      <c r="O37" s="22">
+      <c r="P37" s="22">
         <f t="shared" si="27"/>
         <v>192</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Q37" s="3">
         <f t="shared" si="25"/>
         <v>160</v>
       </c>
-      <c r="Q37" s="35">
+      <c r="R37" s="35">
         <f t="shared" si="20"/>
         <v>0.0342105263157895</v>
       </c>
-      <c r="R37" s="35">
+      <c r="S37" s="35">
         <f t="shared" si="20"/>
         <v>0.0325876829605081</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" s="22">
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="22">
         <v>1</v>
@@ -6936,36 +6987,37 @@
         <v>1</v>
       </c>
       <c r="M38" s="22"/>
-      <c r="N38" s="22">
+      <c r="N38" s="22"/>
+      <c r="O38" s="22">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="O38" s="22">
+      <c r="P38" s="22">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="3">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="Q38" s="35">
+      <c r="R38" s="35">
         <f t="shared" si="20"/>
         <v>0.00793650793650794</v>
       </c>
-      <c r="R38" s="35">
+      <c r="S38" s="35">
         <f t="shared" si="20"/>
         <v>0.00665868851452944</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39" s="22">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="22">
         <f t="shared" si="19"/>
@@ -6998,36 +7050,37 @@
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="22">
+      <c r="N39" s="22"/>
+      <c r="O39" s="22">
         <f t="shared" si="26"/>
         <v>265</v>
       </c>
-      <c r="O39" s="22">
+      <c r="P39" s="22">
         <f t="shared" si="27"/>
         <v>295</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <f t="shared" si="25"/>
         <v>280</v>
       </c>
-      <c r="Q39" s="35">
+      <c r="R39" s="35">
         <f t="shared" si="20"/>
         <v>0.00864661654135338</v>
       </c>
-      <c r="R39" s="35">
+      <c r="S39" s="35">
         <f t="shared" si="20"/>
         <v>0.00728389947528307</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" s="22">
         <v>5</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D40" s="22">
         <v>1</v>
@@ -7061,36 +7114,37 @@
         <v>1</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="N40" s="22">
+      <c r="N40" s="22"/>
+      <c r="O40" s="22">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="O40" s="22">
+      <c r="P40" s="22">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="3">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="35">
+      <c r="R40" s="35">
         <f t="shared" si="20"/>
         <v>0.00950590762620838</v>
       </c>
-      <c r="R40" s="35">
+      <c r="S40" s="35">
         <f t="shared" si="20"/>
         <v>0.00804828973843058</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19">
       <c r="A41" s="22">
         <v>5</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" s="22">
         <f t="shared" si="19"/>
@@ -7123,36 +7177,37 @@
       </c>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
-      <c r="N41" s="22">
+      <c r="N41" s="22"/>
+      <c r="O41" s="22">
         <f t="shared" si="26"/>
         <v>210</v>
       </c>
-      <c r="O41" s="22">
+      <c r="P41" s="22">
         <f t="shared" si="27"/>
         <v>265</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <f t="shared" si="25"/>
         <v>237.5</v>
       </c>
-      <c r="Q41" s="35">
+      <c r="R41" s="35">
         <f t="shared" si="20"/>
         <v>0.0107142857142857</v>
       </c>
-      <c r="R41" s="35">
+      <c r="S41" s="35">
         <f t="shared" si="20"/>
         <v>0.00911350455675228</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" s="22">
         <v>5</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D42" s="22">
         <v>1</v>
@@ -7186,36 +7241,37 @@
         <v>1</v>
       </c>
       <c r="M42" s="22"/>
-      <c r="N42" s="22">
+      <c r="N42" s="22"/>
+      <c r="O42" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="O42" s="22">
+      <c r="P42" s="22">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="R42" s="35">
         <f t="shared" si="20"/>
         <v>0.0121052631578947</v>
       </c>
-      <c r="R42" s="35">
+      <c r="S42" s="35">
         <f t="shared" si="20"/>
         <v>0.0103838718586026</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19">
       <c r="A43" s="22">
         <v>5</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" s="22">
         <v>1</v>
@@ -7249,36 +7305,37 @@
         <v>1</v>
       </c>
       <c r="M43" s="22"/>
-      <c r="N43" s="22">
+      <c r="N43" s="22"/>
+      <c r="O43" s="22">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="O43" s="22">
+      <c r="P43" s="22">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="Q43" s="35">
+      <c r="R43" s="35">
         <f t="shared" si="20"/>
         <v>0.0137218045112782</v>
       </c>
-      <c r="R43" s="35">
+      <c r="S43" s="35">
         <f t="shared" si="20"/>
         <v>0.0119442143054405</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" s="22">
         <v>5</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="22">
         <f t="shared" si="19"/>
@@ -7311,36 +7368,37 @@
       </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="22">
+      <c r="N44" s="22"/>
+      <c r="O44" s="22">
         <f t="shared" si="26"/>
         <v>210</v>
       </c>
-      <c r="O44" s="22">
+      <c r="P44" s="22">
         <f t="shared" si="27"/>
         <v>275</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <f t="shared" si="25"/>
         <v>242.5</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="R44" s="35">
         <f t="shared" si="20"/>
         <v>0.0167919799498747</v>
       </c>
-      <c r="R44" s="35">
+      <c r="S44" s="35">
         <f t="shared" si="20"/>
         <v>0.0148209518549204</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19">
       <c r="A45" s="22">
         <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D45" s="22">
         <v>1</v>
@@ -7374,36 +7432,37 @@
         <v>1</v>
       </c>
       <c r="M45" s="22"/>
-      <c r="N45" s="22">
+      <c r="N45" s="22"/>
+      <c r="O45" s="22">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
-      <c r="O45" s="22">
+      <c r="P45" s="22">
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="Q45" s="35">
+      <c r="R45" s="35">
         <f t="shared" si="20"/>
         <v>0.0214285714285714</v>
       </c>
-      <c r="R45" s="35">
+      <c r="S45" s="35">
         <f t="shared" si="20"/>
         <v>0.0194697597348799</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46" s="22">
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D46" s="22">
         <f t="shared" si="19"/>
@@ -7436,36 +7495,37 @@
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="22">
+      <c r="N46" s="22"/>
+      <c r="O46" s="22">
         <f t="shared" si="26"/>
         <v>230</v>
       </c>
-      <c r="O46" s="22">
+      <c r="P46" s="22">
         <f t="shared" si="27"/>
         <v>285</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <f t="shared" si="25"/>
         <v>257.5</v>
       </c>
-      <c r="Q46" s="35">
+      <c r="R46" s="35">
         <f t="shared" si="20"/>
         <v>0.0308270676691729</v>
       </c>
-      <c r="R46" s="35">
+      <c r="S46" s="35">
         <f t="shared" si="20"/>
         <v>0.0301021817177575</v>
       </c>
     </row>
-    <row r="47" ht="142.5" spans="1:18">
+    <row r="47" ht="142.5" spans="1:19">
       <c r="A47" s="22">
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="22">
         <f t="shared" si="19"/>
@@ -7498,36 +7558,37 @@
       </c>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="3">
+      <c r="N47" s="22"/>
+      <c r="O47" s="3">
         <f t="shared" si="26"/>
         <v>360</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <f t="shared" si="27"/>
         <v>402</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <f t="shared" si="25"/>
         <v>381</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="R47" s="35">
         <f t="shared" si="20"/>
         <v>0.0076858813700919</v>
       </c>
-      <c r="R47" s="35">
+      <c r="S47" s="35">
         <f t="shared" si="20"/>
         <v>0.00647457731136273</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48" s="22">
         <v>6</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" s="22">
         <v>1</v>
@@ -7561,36 +7622,37 @@
         <v>1</v>
       </c>
       <c r="M48" s="22"/>
-      <c r="N48" s="22">
+      <c r="N48" s="22"/>
+      <c r="O48" s="22">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="O48" s="22">
+      <c r="P48" s="22">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="Q48" s="35">
+      <c r="R48" s="35">
         <f t="shared" si="20"/>
         <v>0.00794172932330827</v>
       </c>
-      <c r="R48" s="35">
+      <c r="S48" s="35">
         <f t="shared" si="20"/>
         <v>0.00676608671637669</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19">
       <c r="A49" s="22">
         <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="19"/>
@@ -7623,36 +7685,37 @@
       </c>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="22">
+      <c r="N49" s="22"/>
+      <c r="O49" s="22">
         <f t="shared" si="26"/>
         <v>360</v>
       </c>
-      <c r="O49" s="22">
+      <c r="P49" s="22">
         <f t="shared" si="27"/>
         <v>384</v>
       </c>
-      <c r="P49" s="3">
-        <f t="shared" ref="P49:P55" si="32">AVERAGE(N49,O49)</f>
+      <c r="Q49" s="3">
+        <f t="shared" ref="Q49:Q55" si="32">AVERAGE(O49,P49)</f>
         <v>372</v>
       </c>
-      <c r="Q49" s="35">
+      <c r="R49" s="35">
         <f t="shared" si="20"/>
         <v>0.00827067669172932</v>
       </c>
-      <c r="R49" s="35">
+      <c r="S49" s="35">
         <f t="shared" si="20"/>
         <v>0.00714088452282321</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19">
       <c r="A50" s="22">
         <v>6</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="19"/>
@@ -7685,36 +7748,37 @@
       </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="22">
+      <c r="N50" s="22"/>
+      <c r="O50" s="22">
         <f t="shared" si="26"/>
         <v>330</v>
       </c>
-      <c r="O50" s="22">
+      <c r="P50" s="22">
         <f t="shared" si="27"/>
         <v>396</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Q50" s="3">
         <f t="shared" si="32"/>
         <v>363</v>
       </c>
-      <c r="Q50" s="35">
+      <c r="R50" s="35">
         <f t="shared" si="20"/>
         <v>0.00902255639097744</v>
       </c>
-      <c r="R50" s="35">
+      <c r="S50" s="35">
         <f t="shared" si="20"/>
         <v>0.00787075393537697</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19">
       <c r="A51" s="22">
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="22">
         <v>1</v>
@@ -7748,36 +7812,37 @@
         <v>1</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="N51" s="22">
+      <c r="N51" s="22"/>
+      <c r="O51" s="22">
         <f t="shared" si="26"/>
         <v>12</v>
       </c>
-      <c r="O51" s="22">
+      <c r="P51" s="22">
         <f t="shared" si="27"/>
         <v>12</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="3">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="Q51" s="35">
-        <f t="shared" ref="Q51:R68" si="33">IF($A51&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K51+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A51,$K$2:$K$214,"&gt;="&amp;$K51)))</f>
+      <c r="R51" s="35">
+        <f t="shared" ref="R51:S68" si="33">IF($A51&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K51+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A51,$K$2:$K$214,"&gt;="&amp;$K51)))</f>
         <v>0.00902255639097744</v>
       </c>
-      <c r="R51" s="35">
+      <c r="S51" s="35">
         <f t="shared" si="33"/>
         <v>0.00787075393537697</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19">
       <c r="A52" s="22">
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="19"/>
@@ -7810,36 +7875,37 @@
       </c>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="22">
+      <c r="N52" s="22"/>
+      <c r="O52" s="22">
         <f t="shared" si="26"/>
         <v>330</v>
       </c>
-      <c r="O52" s="22">
+      <c r="P52" s="22">
         <f t="shared" si="27"/>
         <v>408</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <f t="shared" si="32"/>
         <v>369</v>
       </c>
-      <c r="Q52" s="35">
+      <c r="R52" s="35">
         <f t="shared" si="33"/>
         <v>0.0121240601503759</v>
       </c>
-      <c r="R52" s="35">
+      <c r="S52" s="35">
         <f t="shared" si="33"/>
         <v>0.0107705053852527</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19">
       <c r="A53" s="22">
         <v>6</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" s="22">
         <f t="shared" si="19"/>
@@ -7872,36 +7938,37 @@
       </c>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="22">
+      <c r="N53" s="22"/>
+      <c r="O53" s="22">
         <f t="shared" si="26"/>
         <v>318</v>
       </c>
-      <c r="O53" s="22">
+      <c r="P53" s="22">
         <f t="shared" si="27"/>
         <v>348</v>
       </c>
-      <c r="P53" s="3">
+      <c r="Q53" s="3">
         <f t="shared" si="32"/>
         <v>333</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="R53" s="35">
         <f t="shared" si="33"/>
         <v>0.0140350877192982</v>
       </c>
-      <c r="R53" s="35">
+      <c r="S53" s="35">
         <f t="shared" si="33"/>
         <v>0.0127957286200865</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19">
       <c r="A54" s="22">
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="22">
         <f t="shared" si="19"/>
@@ -7934,36 +8001,37 @@
       </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="22">
+      <c r="N54" s="22"/>
+      <c r="O54" s="22">
         <f t="shared" si="26"/>
         <v>354</v>
       </c>
-      <c r="O54" s="22">
+      <c r="P54" s="22">
         <f t="shared" si="27"/>
         <v>384</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <f t="shared" si="32"/>
         <v>369</v>
       </c>
-      <c r="Q54" s="35">
+      <c r="R54" s="35">
         <f t="shared" si="33"/>
         <v>0.0167293233082707</v>
       </c>
-      <c r="R54" s="35">
+      <c r="S54" s="35">
         <f t="shared" si="33"/>
         <v>0.016017674675504</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19">
       <c r="A55" s="22">
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" s="22">
         <v>1</v>
@@ -7997,36 +8065,37 @@
         <v>1</v>
       </c>
       <c r="M55" s="22"/>
-      <c r="N55" s="22">
+      <c r="N55" s="22"/>
+      <c r="O55" s="22">
         <f t="shared" si="26"/>
         <v>12</v>
       </c>
-      <c r="O55" s="22">
+      <c r="P55" s="22">
         <f t="shared" si="27"/>
         <v>12</v>
       </c>
-      <c r="P55" s="3">
+      <c r="Q55" s="3">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="Q55" s="35">
+      <c r="R55" s="35">
         <f t="shared" si="33"/>
         <v>0.0274436090225564</v>
       </c>
-      <c r="R55" s="35">
+      <c r="S55" s="35">
         <f t="shared" si="33"/>
         <v>0.0276166804750069</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19">
       <c r="A56" s="22">
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="22">
         <f t="shared" si="19"/>
@@ -8059,36 +8128,37 @@
       </c>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="22">
+      <c r="N56" s="22"/>
+      <c r="O56" s="22">
         <f t="shared" si="26"/>
         <v>455</v>
       </c>
-      <c r="O56" s="22">
+      <c r="P56" s="22">
         <f t="shared" si="27"/>
         <v>532</v>
       </c>
-      <c r="P56" s="3">
+      <c r="Q56" s="3">
         <f t="shared" si="25"/>
         <v>493.5</v>
       </c>
-      <c r="Q56" s="35">
+      <c r="R56" s="35">
         <f t="shared" si="33"/>
         <v>0.0064327485380117</v>
       </c>
-      <c r="R56" s="35">
+      <c r="S56" s="35">
         <f t="shared" si="33"/>
         <v>0.00555402129552917</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19">
       <c r="A57" s="22">
         <v>7</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" s="22">
         <v>1</v>
@@ -8122,36 +8192,37 @@
         <v>1</v>
       </c>
       <c r="M57" s="22"/>
-      <c r="N57" s="22">
+      <c r="N57" s="22"/>
+      <c r="O57" s="22">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="O57" s="22">
+      <c r="P57" s="22">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="Q57" s="35">
+      <c r="R57" s="35">
         <f t="shared" si="33"/>
         <v>0.00700187969924812</v>
       </c>
-      <c r="R57" s="35">
+      <c r="S57" s="35">
         <f t="shared" si="33"/>
         <v>0.00607566970450152</v>
       </c>
     </row>
-    <row r="58" ht="28.5" spans="1:18">
+    <row r="58" ht="28.5" spans="1:19">
       <c r="A58" s="22">
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D58" s="22">
         <v>1</v>
@@ -8185,36 +8256,37 @@
         <v>1</v>
       </c>
       <c r="M58" s="22"/>
-      <c r="N58" s="22">
+      <c r="N58" s="22"/>
+      <c r="O58" s="22">
         <f t="shared" si="26"/>
         <v>12</v>
       </c>
-      <c r="O58" s="22">
+      <c r="P58" s="22">
         <f t="shared" si="27"/>
         <v>12</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="Q58" s="35">
+      <c r="R58" s="35">
         <f t="shared" si="33"/>
         <v>0.00773361976369495</v>
       </c>
-      <c r="R58" s="35">
+      <c r="S58" s="35">
         <f t="shared" si="33"/>
         <v>0.0067463605160374</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19">
       <c r="A59" s="22">
         <v>7</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="22">
         <f t="shared" si="19"/>
@@ -8247,36 +8319,37 @@
       </c>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="22">
+      <c r="N59" s="22"/>
+      <c r="O59" s="22">
         <f t="shared" si="26"/>
         <v>434</v>
       </c>
-      <c r="O59" s="22">
+      <c r="P59" s="22">
         <f t="shared" si="27"/>
         <v>518</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <f t="shared" si="25"/>
         <v>476</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="R59" s="35">
         <f t="shared" si="33"/>
         <v>0.00773361976369495</v>
       </c>
-      <c r="R59" s="35">
+      <c r="S59" s="35">
         <f t="shared" si="33"/>
         <v>0.0067463605160374</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19">
       <c r="A60" s="22">
         <v>7</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" s="22">
         <v>1</v>
@@ -8310,36 +8383,37 @@
         <v>1</v>
       </c>
       <c r="M60" s="22"/>
-      <c r="N60" s="22">
+      <c r="N60" s="22"/>
+      <c r="O60" s="22">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="O60" s="22">
+      <c r="P60" s="22">
         <f t="shared" si="27"/>
         <v>10</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="R60" s="35">
         <f t="shared" si="33"/>
         <v>0.0100751879699248</v>
       </c>
-      <c r="R60" s="35">
+      <c r="S60" s="35">
         <f t="shared" si="33"/>
         <v>0.00889257111295222</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19">
       <c r="A61" s="22">
         <v>7</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D61" s="22">
         <f t="shared" si="19"/>
@@ -8372,36 +8446,37 @@
       </c>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="22">
+      <c r="N61" s="22"/>
+      <c r="O61" s="22">
         <f t="shared" si="26"/>
         <v>518</v>
       </c>
-      <c r="O61" s="22">
+      <c r="P61" s="22">
         <f t="shared" si="27"/>
         <v>525</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <f t="shared" si="25"/>
         <v>521.5</v>
       </c>
-      <c r="Q61" s="35">
+      <c r="R61" s="35">
         <f t="shared" si="33"/>
         <v>0.0121240601503759</v>
       </c>
-      <c r="R61" s="35">
+      <c r="S61" s="35">
         <f t="shared" si="33"/>
         <v>0.0107705053852527</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19">
       <c r="A62" s="22">
         <v>7</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62" s="22">
         <f t="shared" si="19"/>
@@ -8434,36 +8509,37 @@
       </c>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="N62" s="22">
-        <f t="shared" ref="N62:N93" si="34">D62*E62</f>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22">
+        <f t="shared" ref="O62:O93" si="34">D62*E62</f>
         <v>441</v>
       </c>
-      <c r="O62" s="22">
-        <f t="shared" ref="O62:O93" si="35">D62*F62</f>
+      <c r="P62" s="22">
+        <f t="shared" ref="P62:P93" si="35">D62*F62</f>
         <v>469</v>
       </c>
-      <c r="P62" s="3">
-        <f t="shared" ref="P62:P93" si="36">AVERAGE(N62,O62)</f>
+      <c r="Q62" s="3">
+        <f t="shared" ref="Q62:Q93" si="36">AVERAGE(O62,P62)</f>
         <v>455</v>
       </c>
-      <c r="Q62" s="35">
+      <c r="R62" s="35">
         <f t="shared" si="33"/>
         <v>0.0142857142857143</v>
       </c>
-      <c r="R62" s="35">
+      <c r="S62" s="35">
         <f t="shared" si="33"/>
         <v>0.0129798398232532</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19">
       <c r="A63" s="22">
         <v>7</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D63" s="22">
         <f t="shared" si="19"/>
@@ -8496,36 +8572,37 @@
       </c>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="22">
+      <c r="N63" s="22"/>
+      <c r="O63" s="22">
         <f t="shared" si="34"/>
         <v>427</v>
       </c>
-      <c r="O63" s="22">
+      <c r="P63" s="22">
         <f t="shared" si="35"/>
         <v>455</v>
       </c>
-      <c r="P63" s="3">
+      <c r="Q63" s="3">
         <f t="shared" si="36"/>
         <v>441</v>
       </c>
-      <c r="Q63" s="35">
+      <c r="R63" s="35">
         <f t="shared" si="33"/>
         <v>0.0157894736842105</v>
       </c>
-      <c r="R63" s="35">
+      <c r="S63" s="35">
         <f t="shared" si="33"/>
         <v>0.0153272576636288</v>
       </c>
     </row>
-    <row r="64" ht="28.5" spans="1:18">
+    <row r="64" ht="28.5" spans="1:19">
       <c r="A64" s="22">
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D64" s="22">
         <f t="shared" si="19"/>
@@ -8558,36 +8635,37 @@
       </c>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="22">
+      <c r="N64" s="22"/>
+      <c r="O64" s="22">
         <f t="shared" si="34"/>
         <v>483</v>
       </c>
-      <c r="O64" s="22">
+      <c r="P64" s="22">
         <f t="shared" si="35"/>
         <v>532</v>
       </c>
-      <c r="P64" s="3">
+      <c r="Q64" s="3">
         <f t="shared" si="36"/>
         <v>507.5</v>
       </c>
-      <c r="Q64" s="35">
+      <c r="R64" s="35">
         <f t="shared" si="33"/>
         <v>0.0240601503759398</v>
       </c>
-      <c r="R64" s="35">
+      <c r="S64" s="35">
         <f t="shared" si="33"/>
         <v>0.0251311792322563</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19">
       <c r="A65" s="22">
         <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D65" s="22">
         <v>9</v>
@@ -8619,36 +8697,37 @@
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="22">
+      <c r="N65" s="3"/>
+      <c r="O65" s="22">
         <f t="shared" si="34"/>
         <v>801</v>
       </c>
-      <c r="O65" s="22">
+      <c r="P65" s="22">
         <f t="shared" si="35"/>
         <v>891</v>
       </c>
-      <c r="P65" s="3">
+      <c r="Q65" s="3">
         <f t="shared" si="36"/>
         <v>846</v>
       </c>
-      <c r="Q65" s="35">
+      <c r="R65" s="35">
         <f t="shared" si="33"/>
         <v>0.00631578947368421</v>
       </c>
-      <c r="R65" s="35">
+      <c r="S65" s="35">
         <f t="shared" si="33"/>
         <v>0.00613090306545153</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:19">
       <c r="A66" s="22">
         <v>9</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" s="22">
         <v>9</v>
@@ -8680,36 +8759,37 @@
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="22">
+      <c r="N66" s="3"/>
+      <c r="O66" s="22">
         <f t="shared" si="34"/>
         <v>738</v>
       </c>
-      <c r="O66" s="22">
+      <c r="P66" s="22">
         <f t="shared" si="35"/>
         <v>792</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <f t="shared" si="36"/>
         <v>765</v>
       </c>
-      <c r="Q66" s="35">
+      <c r="R66" s="35">
         <f t="shared" si="33"/>
         <v>0.00451127819548872</v>
       </c>
-      <c r="R66" s="35">
+      <c r="S66" s="35">
         <f t="shared" si="33"/>
         <v>0.00393537696768848</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19">
       <c r="A67" s="22">
         <v>9</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" s="22">
         <v>1</v>
@@ -8743,36 +8823,37 @@
         <v>1</v>
       </c>
       <c r="M67" s="22"/>
-      <c r="N67" s="22">
+      <c r="N67" s="22"/>
+      <c r="O67" s="22">
         <f t="shared" si="34"/>
         <v>10</v>
       </c>
-      <c r="O67" s="22">
+      <c r="P67" s="22">
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
-      <c r="P67" s="3">
+      <c r="Q67" s="3">
         <f t="shared" si="36"/>
         <v>10</v>
       </c>
-      <c r="Q67" s="35">
+      <c r="R67" s="35">
         <f t="shared" si="33"/>
         <v>0.00423786739576213</v>
       </c>
-      <c r="R67" s="35">
+      <c r="S67" s="35">
         <f t="shared" si="33"/>
         <v>0.00379101704702368</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19">
       <c r="A68" s="22">
         <v>9</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D68" s="22">
         <v>9</v>
@@ -8804,36 +8885,37 @@
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-      <c r="N68" s="22">
+      <c r="N68" s="3"/>
+      <c r="O68" s="22">
         <f t="shared" si="34"/>
         <v>693</v>
       </c>
-      <c r="O68" s="22">
+      <c r="P68" s="22">
         <f t="shared" si="35"/>
         <v>756</v>
       </c>
-      <c r="P68" s="3">
+      <c r="Q68" s="3">
         <f t="shared" si="36"/>
         <v>724.5</v>
       </c>
-      <c r="Q68" s="35">
+      <c r="R68" s="35">
         <f t="shared" si="33"/>
         <v>0.00428571428571429</v>
       </c>
-      <c r="R68" s="35">
+      <c r="S68" s="35">
         <f t="shared" si="33"/>
         <v>0.00389395194697597</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:19">
       <c r="A69" s="22">
         <v>9</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D69" s="22">
         <v>9</v>
@@ -8865,36 +8947,37 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="22">
+      <c r="N69" s="3"/>
+      <c r="O69" s="22">
         <f t="shared" si="34"/>
         <v>666</v>
       </c>
-      <c r="O69" s="22">
+      <c r="P69" s="22">
         <f t="shared" si="35"/>
         <v>873</v>
       </c>
-      <c r="P69" s="3">
+      <c r="Q69" s="3">
         <f t="shared" si="36"/>
         <v>769.5</v>
       </c>
-      <c r="Q69" s="35">
-        <f t="shared" ref="Q69:R88" si="45">IF($A69&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K69+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A69,$K$2:$K$214,"&gt;="&amp;$K69)))</f>
+      <c r="R69" s="35">
+        <f t="shared" ref="R69:S88" si="45">IF($A69&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K69+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A69,$K$2:$K$214,"&gt;="&amp;$K69)))</f>
         <v>0.00428571428571429</v>
       </c>
-      <c r="R69" s="35">
+      <c r="S69" s="35">
         <f t="shared" si="45"/>
         <v>0.00389395194697597</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:19">
       <c r="A70" s="22">
         <v>9</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="22">
         <v>9</v>
@@ -8926,36 +9009,37 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="22">
+      <c r="N70" s="3"/>
+      <c r="O70" s="22">
         <f t="shared" si="34"/>
         <v>666</v>
       </c>
-      <c r="O70" s="22">
+      <c r="P70" s="22">
         <f t="shared" si="35"/>
         <v>837</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <f t="shared" si="36"/>
         <v>751.5</v>
       </c>
-      <c r="Q70" s="35">
+      <c r="R70" s="35">
         <f t="shared" si="45"/>
         <v>0.00504833512352309</v>
       </c>
-      <c r="R70" s="35">
+      <c r="S70" s="35">
         <f t="shared" si="45"/>
         <v>0.00477374048210834</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:19">
       <c r="A71" s="22">
         <v>9</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D71" s="22">
         <v>9</v>
@@ -8987,36 +9071,37 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="22">
+      <c r="N71" s="3"/>
+      <c r="O71" s="22">
         <f t="shared" si="34"/>
         <v>639</v>
       </c>
-      <c r="O71" s="22">
+      <c r="P71" s="22">
         <f t="shared" si="35"/>
         <v>648</v>
       </c>
-      <c r="P71" s="3">
+      <c r="Q71" s="3">
         <f t="shared" si="36"/>
         <v>643.5</v>
       </c>
-      <c r="Q71" s="35">
+      <c r="R71" s="35">
         <f t="shared" si="45"/>
         <v>0.00488721804511278</v>
       </c>
-      <c r="R71" s="35">
+      <c r="S71" s="35">
         <f t="shared" si="45"/>
         <v>0.00452223142778238</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:19">
       <c r="A72" s="22">
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D72" s="22">
         <v>9</v>
@@ -9048,36 +9133,37 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="22">
+      <c r="N72" s="3"/>
+      <c r="O72" s="22">
         <f t="shared" si="34"/>
         <v>792</v>
       </c>
-      <c r="O72" s="22">
+      <c r="P72" s="22">
         <f t="shared" si="35"/>
         <v>828</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <f t="shared" si="36"/>
         <v>810</v>
       </c>
-      <c r="Q72" s="35">
+      <c r="R72" s="35">
         <f t="shared" si="45"/>
         <v>0.00504833512352309</v>
       </c>
-      <c r="R72" s="35">
+      <c r="S72" s="35">
         <f t="shared" si="45"/>
         <v>0.00477374048210834</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:19">
       <c r="A73" s="22">
         <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" s="22">
         <v>9</v>
@@ -9109,36 +9195,37 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="22">
+      <c r="N73" s="3"/>
+      <c r="O73" s="22">
         <f t="shared" si="34"/>
         <v>756</v>
       </c>
-      <c r="O73" s="22">
+      <c r="P73" s="22">
         <f t="shared" si="35"/>
         <v>774</v>
       </c>
-      <c r="P73" s="3">
+      <c r="Q73" s="3">
         <f t="shared" si="36"/>
         <v>765</v>
       </c>
-      <c r="Q73" s="35">
+      <c r="R73" s="35">
         <f t="shared" si="45"/>
         <v>0.00695488721804511</v>
       </c>
-      <c r="R73" s="35">
+      <c r="S73" s="35">
         <f t="shared" si="45"/>
         <v>0.00697321181993924</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19">
       <c r="A74" s="22">
         <v>9</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D74" s="22">
         <v>1</v>
@@ -9172,36 +9259,37 @@
         <v>1</v>
       </c>
       <c r="M74" s="22"/>
-      <c r="N74" s="22">
+      <c r="N74" s="22"/>
+      <c r="O74" s="22">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="O74" s="22">
+      <c r="P74" s="22">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="P74" s="3">
+      <c r="Q74" s="3">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="Q74" s="35">
+      <c r="R74" s="35">
         <f t="shared" si="45"/>
         <v>0.00802005012531328</v>
       </c>
-      <c r="R74" s="35">
+      <c r="S74" s="35">
         <f t="shared" si="45"/>
         <v>0.00837705974408543</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19">
       <c r="A75" s="22">
         <v>9</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" s="22">
         <v>9</v>
@@ -9233,36 +9321,37 @@
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="22">
+      <c r="N75" s="3"/>
+      <c r="O75" s="22">
         <f t="shared" si="34"/>
         <v>774</v>
       </c>
-      <c r="O75" s="22">
+      <c r="P75" s="22">
         <f t="shared" si="35"/>
         <v>855</v>
       </c>
-      <c r="P75" s="3">
+      <c r="Q75" s="3">
         <f t="shared" si="36"/>
         <v>814.5</v>
       </c>
-      <c r="Q75" s="35">
+      <c r="R75" s="35">
         <f t="shared" si="45"/>
         <v>0.0101503759398496</v>
       </c>
-      <c r="R75" s="35">
+      <c r="S75" s="35">
         <f t="shared" si="45"/>
         <v>0.0111847555923778</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19">
       <c r="A76" s="22">
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D76" s="22">
         <v>9</v>
@@ -9294,36 +9383,37 @@
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="22">
+      <c r="N76" s="3"/>
+      <c r="O76" s="22">
         <f t="shared" si="34"/>
         <v>783</v>
       </c>
-      <c r="O76" s="22">
+      <c r="P76" s="22">
         <f t="shared" si="35"/>
         <v>792</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <f t="shared" si="36"/>
         <v>787.5</v>
       </c>
-      <c r="Q76" s="35">
+      <c r="R76" s="35">
         <f t="shared" si="45"/>
         <v>0.0172932330827068</v>
       </c>
-      <c r="R76" s="35">
+      <c r="S76" s="35">
         <f t="shared" si="45"/>
         <v>0.020160176746755</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19">
       <c r="A77" s="3">
         <v>11</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D77" s="22">
         <v>11</v>
@@ -9355,36 +9445,37 @@
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="22">
+      <c r="N77" s="3"/>
+      <c r="O77" s="22">
         <f t="shared" si="34"/>
         <v>1188</v>
       </c>
-      <c r="O77" s="22">
+      <c r="P77" s="22">
         <f t="shared" si="35"/>
         <v>1254</v>
       </c>
-      <c r="P77" s="3">
+      <c r="Q77" s="3">
         <f t="shared" si="36"/>
         <v>1221</v>
       </c>
-      <c r="Q77" s="35">
+      <c r="R77" s="35">
         <f t="shared" si="45"/>
         <v>0.00558539205155746</v>
       </c>
-      <c r="R77" s="35">
+      <c r="S77" s="35">
         <f t="shared" si="45"/>
         <v>0.00516826448889415</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19">
       <c r="A78" s="3">
         <v>11</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D78" s="22">
         <v>11</v>
@@ -9416,36 +9507,37 @@
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="22">
+      <c r="N78" s="3"/>
+      <c r="O78" s="22">
         <f t="shared" si="34"/>
         <v>1133</v>
       </c>
-      <c r="O78" s="22">
+      <c r="P78" s="22">
         <f t="shared" si="35"/>
         <v>1199</v>
       </c>
-      <c r="P78" s="3">
+      <c r="Q78" s="3">
         <f t="shared" si="36"/>
         <v>1166</v>
       </c>
-      <c r="Q78" s="35">
+      <c r="R78" s="35">
         <f t="shared" si="45"/>
         <v>0.00451127819548872</v>
       </c>
-      <c r="R78" s="35">
+      <c r="S78" s="35">
         <f t="shared" si="45"/>
         <v>0.00393537696768848</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:18">
+    <row r="79" ht="28.5" spans="1:19">
       <c r="A79" s="3">
         <v>11</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D79" s="22">
         <v>1</v>
@@ -9478,39 +9570,40 @@
       <c r="L79" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M79" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N79" s="22">
+      <c r="M79" s="22"/>
+      <c r="N79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O79" s="22">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="O79" s="22">
+      <c r="P79" s="22">
         <f t="shared" si="35"/>
         <v>20</v>
       </c>
-      <c r="P79" s="3">
+      <c r="Q79" s="3">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="Q79" s="35">
+      <c r="R79" s="35">
         <f t="shared" si="45"/>
         <v>0.00457963089542037</v>
       </c>
-      <c r="R79" s="35">
+      <c r="S79" s="35">
         <f t="shared" si="45"/>
         <v>0.00404207777861465</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:19">
       <c r="A80" s="3">
         <v>11</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D80" s="22">
         <v>11</v>
@@ -9542,36 +9635,37 @@
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
-      <c r="N80" s="22">
+      <c r="N80" s="3"/>
+      <c r="O80" s="22">
         <f t="shared" si="34"/>
         <v>1199</v>
       </c>
-      <c r="O80" s="22">
+      <c r="P80" s="22">
         <f t="shared" si="35"/>
         <v>1265</v>
       </c>
-      <c r="P80" s="3">
+      <c r="Q80" s="3">
         <f t="shared" si="36"/>
         <v>1232</v>
       </c>
-      <c r="Q80" s="35">
+      <c r="R80" s="35">
         <f t="shared" si="45"/>
         <v>0.005</v>
       </c>
-      <c r="R80" s="35">
+      <c r="S80" s="35">
         <f t="shared" si="45"/>
         <v>0.0044186688760011</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19">
       <c r="A81" s="3">
         <v>11</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D81" s="22">
         <v>11</v>
@@ -9603,36 +9697,37 @@
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="22">
+      <c r="N81" s="3"/>
+      <c r="O81" s="22">
         <f t="shared" si="34"/>
         <v>1111</v>
       </c>
-      <c r="O81" s="22">
+      <c r="P81" s="22">
         <f t="shared" si="35"/>
         <v>1155</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <f t="shared" si="36"/>
         <v>1133</v>
       </c>
-      <c r="Q81" s="35">
+      <c r="R81" s="35">
         <f t="shared" si="45"/>
         <v>0.00517961570593149</v>
       </c>
-      <c r="R81" s="35">
+      <c r="S81" s="35">
         <f t="shared" si="45"/>
         <v>0.0046334652796956</v>
       </c>
     </row>
-    <row r="82" ht="28.5" spans="1:18">
+    <row r="82" ht="28.5" spans="1:19">
       <c r="A82" s="3">
         <v>11</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D82" s="22">
         <v>1</v>
@@ -9665,39 +9760,40 @@
       <c r="L82" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N82" s="22">
+      <c r="M82" s="22"/>
+      <c r="N82" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O82" s="22">
         <f t="shared" si="34"/>
         <v>112</v>
       </c>
-      <c r="O82" s="22">
+      <c r="P82" s="22">
         <f t="shared" si="35"/>
         <v>113</v>
       </c>
-      <c r="P82" s="3">
+      <c r="Q82" s="3">
         <f t="shared" si="36"/>
         <v>112.5</v>
       </c>
-      <c r="Q82" s="35">
+      <c r="R82" s="35">
         <f t="shared" si="45"/>
         <v>0.00531015037593985</v>
       </c>
-      <c r="R82" s="35">
+      <c r="S82" s="35">
         <f t="shared" si="45"/>
         <v>0.00483291908312621</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19">
       <c r="A83" s="3">
         <v>11</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" s="22">
         <v>11</v>
@@ -9729,36 +9825,37 @@
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="22">
+      <c r="N83" s="3"/>
+      <c r="O83" s="22">
         <f t="shared" si="34"/>
         <v>1155</v>
       </c>
-      <c r="O83" s="22">
+      <c r="P83" s="22">
         <f t="shared" si="35"/>
         <v>1298</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <f t="shared" si="36"/>
         <v>1226.5</v>
       </c>
-      <c r="Q83" s="35">
+      <c r="R83" s="35">
         <f t="shared" si="45"/>
         <v>0.00620300751879699</v>
       </c>
-      <c r="R83" s="35">
+      <c r="S83" s="35">
         <f t="shared" si="45"/>
         <v>0.00579950289975145</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:19">
       <c r="A84" s="3">
         <v>11</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D84" s="22">
         <v>11</v>
@@ -9790,36 +9887,37 @@
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="22">
+      <c r="N84" s="3"/>
+      <c r="O84" s="22">
         <f t="shared" si="34"/>
         <v>1155</v>
       </c>
-      <c r="O84" s="22">
+      <c r="P84" s="22">
         <f t="shared" si="35"/>
         <v>1265</v>
       </c>
-      <c r="P84" s="3">
+      <c r="Q84" s="3">
         <f t="shared" si="36"/>
         <v>1210</v>
       </c>
-      <c r="Q84" s="35">
+      <c r="R84" s="35">
         <f t="shared" si="45"/>
         <v>0.00676691729323308</v>
       </c>
-      <c r="R84" s="35">
+      <c r="S84" s="35">
         <f t="shared" si="45"/>
         <v>0.00646230323115162</v>
       </c>
     </row>
-    <row r="85" ht="28.5" spans="1:18">
+    <row r="85" ht="28.5" spans="1:19">
       <c r="A85" s="3">
         <v>11</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D85" s="22">
         <v>1</v>
@@ -9852,39 +9950,40 @@
       <c r="L85" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M85" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N85" s="22">
+      <c r="M85" s="22"/>
+      <c r="N85" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O85" s="22">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="O85" s="22">
+      <c r="P85" s="22">
         <f t="shared" si="35"/>
         <v>20</v>
       </c>
-      <c r="P85" s="3">
+      <c r="Q85" s="3">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="Q85" s="35">
+      <c r="R85" s="35">
         <f t="shared" si="45"/>
         <v>0.00761278195488722</v>
       </c>
-      <c r="R85" s="35">
+      <c r="S85" s="35">
         <f t="shared" si="45"/>
         <v>0.00745650372825186</v>
       </c>
     </row>
-    <row r="86" ht="28.5" spans="1:18">
+    <row r="86" ht="28.5" spans="1:19">
       <c r="A86" s="3">
         <v>11</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86" s="22">
         <v>1</v>
@@ -9917,39 +10016,40 @@
       <c r="L86" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N86" s="22">
+      <c r="M86" s="22"/>
+      <c r="N86" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O86" s="22">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="O86" s="22">
+      <c r="P86" s="22">
         <f t="shared" si="35"/>
         <v>20</v>
       </c>
-      <c r="P86" s="3">
+      <c r="Q86" s="3">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="Q86" s="35">
+      <c r="R86" s="35">
         <f t="shared" si="45"/>
         <v>0.00776942355889724</v>
       </c>
-      <c r="R86" s="35">
+      <c r="S86" s="35">
         <f t="shared" si="45"/>
         <v>0.00819294854091871</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:19">
       <c r="A87" s="3">
         <v>11</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D87" s="22">
         <v>11</v>
@@ -9981,36 +10081,37 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="22">
+      <c r="N87" s="3"/>
+      <c r="O87" s="22">
         <f t="shared" si="34"/>
         <v>1155</v>
       </c>
-      <c r="O87" s="22">
+      <c r="P87" s="22">
         <f t="shared" si="35"/>
         <v>1210</v>
       </c>
-      <c r="P87" s="3">
+      <c r="Q87" s="3">
         <f t="shared" si="36"/>
         <v>1182.5</v>
       </c>
-      <c r="Q87" s="35">
+      <c r="R87" s="35">
         <f t="shared" si="45"/>
         <v>0.00733082706766917</v>
       </c>
-      <c r="R87" s="35">
+      <c r="S87" s="35">
         <f t="shared" si="45"/>
         <v>0.00911350455675228</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:19">
       <c r="A88" s="3">
         <v>11</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D88" s="22">
         <v>11</v>
@@ -10042,36 +10143,37 @@
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="22">
+      <c r="N88" s="3"/>
+      <c r="O88" s="22">
         <f t="shared" si="34"/>
         <v>1122</v>
       </c>
-      <c r="O88" s="22">
+      <c r="P88" s="22">
         <f t="shared" si="35"/>
         <v>1254</v>
       </c>
-      <c r="P88" s="3">
+      <c r="Q88" s="3">
         <f t="shared" si="36"/>
         <v>1188</v>
       </c>
-      <c r="Q88" s="35">
+      <c r="R88" s="35">
         <f t="shared" si="45"/>
         <v>0.0105263157894737</v>
       </c>
-      <c r="R88" s="35">
+      <c r="S88" s="35">
         <f t="shared" si="45"/>
         <v>0.0151891742612538</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:19">
       <c r="A89" s="3">
         <v>14</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D89" s="22">
         <v>14</v>
@@ -10103,36 +10205,37 @@
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="22">
+      <c r="N89" s="3"/>
+      <c r="O89" s="22">
         <f t="shared" si="34"/>
         <v>1820</v>
       </c>
-      <c r="O89" s="22">
+      <c r="P89" s="22">
         <f t="shared" si="35"/>
         <v>2030</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <f t="shared" si="36"/>
         <v>1925</v>
       </c>
-      <c r="Q89" s="35">
-        <f t="shared" ref="Q89:R113" si="50">IF($A89&gt;TRUNC(Q$1/9),0,1/TRUNC(Q$1/9)*(TRUNC(99+Q$1)-$K89+1)/(TRUNC(99+Q$1)-TRUNC(1+SQRT(14*Q$1))+1)*1/(COUNTIFS($A$2:$A$214,$A89,$K$2:$K$214,"&gt;="&amp;$K89)))</f>
+      <c r="R89" s="35">
+        <f t="shared" ref="R89:S113" si="50">IF($A89&gt;TRUNC(R$1/9),0,1/TRUNC(R$1/9)*(TRUNC(99+R$1)-$K89+1)/(TRUNC(99+R$1)-TRUNC(1+SQRT(14*R$1))+1)*1/(COUNTIFS($A$2:$A$214,$A89,$K$2:$K$214,"&gt;="&amp;$K89)))</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="R89" s="35">
+      <c r="S89" s="35">
         <f t="shared" si="50"/>
         <v>0.00324495995581331</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:19">
       <c r="A90" s="3">
         <v>14</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D90" s="22">
         <v>14</v>
@@ -10164,36 +10267,37 @@
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-      <c r="N90" s="22">
+      <c r="N90" s="3"/>
+      <c r="O90" s="22">
         <f t="shared" si="34"/>
         <v>1890</v>
       </c>
-      <c r="O90" s="22">
+      <c r="P90" s="22">
         <f t="shared" si="35"/>
         <v>2016</v>
       </c>
-      <c r="P90" s="3">
+      <c r="Q90" s="3">
         <f t="shared" si="36"/>
         <v>1953</v>
       </c>
-      <c r="Q90" s="35">
+      <c r="R90" s="35">
         <f t="shared" si="50"/>
         <v>0.00321257689678742</v>
       </c>
-      <c r="R90" s="35">
+      <c r="S90" s="35">
         <f t="shared" si="50"/>
         <v>0.00303783485225076</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="1:18">
+    <row r="91" ht="28.5" spans="1:19">
       <c r="A91" s="3">
         <v>14</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D91" s="22">
         <v>1</v>
@@ -10226,39 +10330,40 @@
       <c r="L91" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N91" s="22">
+      <c r="M91" s="22"/>
+      <c r="N91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O91" s="22">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="O91" s="22">
+      <c r="P91" s="22">
         <f t="shared" si="35"/>
         <v>20</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="Q91" s="35">
+      <c r="R91" s="35">
         <f t="shared" si="50"/>
         <v>0.00315789473684211</v>
       </c>
-      <c r="R91" s="35">
+      <c r="S91" s="35">
         <f t="shared" si="50"/>
         <v>0.00306545153272577</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:19">
       <c r="A92" s="3">
         <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D92" s="22">
         <v>14</v>
@@ -10290,36 +10395,37 @@
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-      <c r="N92" s="22">
+      <c r="N92" s="3"/>
+      <c r="O92" s="22">
         <f t="shared" si="34"/>
         <v>1736</v>
       </c>
-      <c r="O92" s="22">
+      <c r="P92" s="22">
         <f t="shared" si="35"/>
         <v>2030</v>
       </c>
-      <c r="P92" s="3">
+      <c r="Q92" s="3">
         <f t="shared" si="36"/>
         <v>1883</v>
       </c>
-      <c r="Q92" s="35">
+      <c r="R92" s="35">
         <f t="shared" si="50"/>
         <v>0.00309106098579783</v>
       </c>
-      <c r="R92" s="35">
+      <c r="S92" s="35">
         <f t="shared" si="50"/>
         <v>0.00309920525330633</v>
       </c>
     </row>
-    <row r="93" ht="28.5" spans="1:18">
+    <row r="93" ht="28.5" spans="1:19">
       <c r="A93" s="3">
         <v>14</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D93" s="22">
         <v>1</v>
@@ -10352,39 +10458,40 @@
       <c r="L93" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N93" s="22">
+      <c r="M93" s="22"/>
+      <c r="N93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O93" s="22">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="O93" s="22">
+      <c r="P93" s="22">
         <f t="shared" si="35"/>
         <v>20</v>
       </c>
-      <c r="P93" s="3">
+      <c r="Q93" s="3">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="Q93" s="35">
+      <c r="R93" s="35">
         <f t="shared" si="50"/>
         <v>0.00309106098579783</v>
       </c>
-      <c r="R93" s="35">
+      <c r="S93" s="35">
         <f t="shared" si="50"/>
         <v>0.00309920525330633</v>
       </c>
     </row>
-    <row r="94" ht="28.5" spans="1:18">
+    <row r="94" ht="28.5" spans="1:19">
       <c r="A94" s="3">
         <v>14</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D94" s="22">
         <v>-15</v>
@@ -10415,37 +10522,40 @@
         <v>175</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="22">
-        <f t="shared" ref="N94:N113" si="51">D94*E94</f>
+      <c r="M94" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3"/>
+      <c r="O94" s="22">
+        <f t="shared" ref="O94:O113" si="51">D94*E94</f>
         <v>-1860</v>
       </c>
-      <c r="O94" s="22">
-        <f t="shared" ref="O94:O113" si="52">D94*F94</f>
+      <c r="P94" s="22">
+        <f t="shared" ref="P94:P113" si="52">D94*F94</f>
         <v>-1920</v>
       </c>
-      <c r="P94" s="3">
-        <f t="shared" ref="P94:P113" si="53">AVERAGE(N94,O94)</f>
+      <c r="Q94" s="3">
+        <f t="shared" ref="Q94:Q113" si="53">AVERAGE(O94,P94)</f>
         <v>-1890</v>
       </c>
-      <c r="Q94" s="35">
+      <c r="R94" s="35">
         <f t="shared" si="50"/>
         <v>0.00316863587540279</v>
       </c>
-      <c r="R94" s="35">
+      <c r="S94" s="35">
         <f t="shared" si="50"/>
         <v>0.00339290645835799</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:19">
       <c r="A95" s="3">
         <v>14</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D95" s="22">
         <v>14</v>
@@ -10475,36 +10585,36 @@
       <c r="K95" s="3">
         <v>177</v>
       </c>
-      <c r="N95" s="22">
+      <c r="O95" s="22">
         <f t="shared" si="51"/>
         <v>1764</v>
       </c>
-      <c r="O95" s="22">
+      <c r="P95" s="22">
         <f t="shared" si="52"/>
         <v>1834</v>
       </c>
-      <c r="P95" s="3">
+      <c r="Q95" s="3">
         <f t="shared" si="53"/>
         <v>1799</v>
       </c>
-      <c r="Q95" s="35">
+      <c r="R95" s="35">
         <f t="shared" si="50"/>
         <v>0.00357142857142857</v>
       </c>
-      <c r="R95" s="35">
+      <c r="S95" s="35">
         <f t="shared" si="50"/>
         <v>0.00386633526650097</v>
       </c>
     </row>
-    <row r="96" ht="28.5" spans="1:18">
+    <row r="96" ht="28.5" spans="1:19">
       <c r="A96" s="3">
         <v>14</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D96" s="22">
         <v>1</v>
@@ -10537,39 +10647,40 @@
       <c r="L96" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N96" s="22">
+      <c r="M96" s="22"/>
+      <c r="N96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O96" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O96" s="22">
+      <c r="P96" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q96" s="35">
+      <c r="R96" s="35">
         <f t="shared" si="50"/>
         <v>0.00406015037593985</v>
       </c>
-      <c r="R96" s="35">
+      <c r="S96" s="35">
         <f t="shared" si="50"/>
         <v>0.00447390223695112</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:19">
       <c r="A97" s="3">
         <v>14</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D97" s="22">
         <v>14</v>
@@ -10601,36 +10712,37 @@
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
-      <c r="N97" s="22">
+      <c r="N97" s="3"/>
+      <c r="O97" s="22">
         <f t="shared" si="51"/>
         <v>1918</v>
       </c>
-      <c r="O97" s="22">
+      <c r="P97" s="22">
         <f t="shared" si="52"/>
         <v>1974</v>
       </c>
-      <c r="P97" s="3">
+      <c r="Q97" s="3">
         <f t="shared" si="53"/>
         <v>1946</v>
       </c>
-      <c r="Q97" s="35">
+      <c r="R97" s="35">
         <f t="shared" si="50"/>
         <v>0.00460526315789474</v>
       </c>
-      <c r="R97" s="35">
+      <c r="S97" s="35">
         <f t="shared" si="50"/>
         <v>0.00524716929025131</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:19">
       <c r="A98" s="3">
         <v>14</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D98" s="22">
         <v>14</v>
@@ -10662,36 +10774,37 @@
       </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="22">
+      <c r="N98" s="3"/>
+      <c r="O98" s="22">
         <f t="shared" si="51"/>
         <v>1764</v>
       </c>
-      <c r="O98" s="22">
+      <c r="P98" s="22">
         <f t="shared" si="52"/>
         <v>1890</v>
       </c>
-      <c r="P98" s="3">
+      <c r="Q98" s="3">
         <f t="shared" si="53"/>
         <v>1827</v>
       </c>
-      <c r="Q98" s="35">
+      <c r="R98" s="35">
         <f t="shared" si="50"/>
         <v>0.00488721804511278</v>
       </c>
-      <c r="R98" s="35">
+      <c r="S98" s="35">
         <f t="shared" si="50"/>
         <v>0.00607566970450152</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:19">
       <c r="A99" s="3">
         <v>14</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D99" s="22">
         <v>14</v>
@@ -10723,36 +10836,37 @@
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="22">
+      <c r="N99" s="3"/>
+      <c r="O99" s="22">
         <f t="shared" si="51"/>
         <v>1960</v>
       </c>
-      <c r="O99" s="22">
+      <c r="P99" s="22">
         <f t="shared" si="52"/>
         <v>2086</v>
       </c>
-      <c r="P99" s="3">
+      <c r="Q99" s="3">
         <f t="shared" si="53"/>
         <v>2023</v>
       </c>
-      <c r="Q99" s="35">
+      <c r="R99" s="35">
         <f t="shared" si="50"/>
         <v>0.00357142857142857</v>
       </c>
-      <c r="R99" s="35">
+      <c r="S99" s="35">
         <f t="shared" si="50"/>
         <v>0.00635183650925159</v>
       </c>
     </row>
-    <row r="100" ht="28.5" spans="1:18">
+    <row r="100" ht="28.5" spans="1:19">
       <c r="A100" s="3">
         <v>14</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D100" s="22">
         <v>1</v>
@@ -10785,39 +10899,40 @@
       <c r="L100" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N100" s="22">
+      <c r="M100" s="22"/>
+      <c r="N100" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O100" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O100" s="22">
+      <c r="P100" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q100" s="35">
+      <c r="R100" s="35">
         <f t="shared" si="50"/>
         <v>0.00037593984962406</v>
       </c>
-      <c r="R100" s="35">
+      <c r="S100" s="35">
         <f t="shared" si="50"/>
         <v>0.00773267053300193</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:19">
       <c r="A101" s="3">
         <v>17</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D101" s="22">
         <v>17</v>
@@ -10849,36 +10964,37 @@
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
-      <c r="N101" s="22">
+      <c r="N101" s="3"/>
+      <c r="O101" s="22">
         <f t="shared" si="51"/>
         <v>2754</v>
       </c>
-      <c r="O101" s="22">
+      <c r="P101" s="22">
         <f t="shared" si="52"/>
         <v>2822</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <f t="shared" si="53"/>
         <v>2788</v>
       </c>
-      <c r="Q101" s="35">
+      <c r="R101" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R101" s="35">
+      <c r="S101" s="35">
         <f t="shared" si="50"/>
         <v>0.00257047564421218</v>
       </c>
     </row>
-    <row r="102" ht="28.5" spans="1:18">
+    <row r="102" ht="28.5" spans="1:19">
       <c r="A102" s="3">
         <v>17</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D102" s="22">
         <v>1</v>
@@ -10911,39 +11027,40 @@
       <c r="L102" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N102" s="22">
+      <c r="M102" s="22"/>
+      <c r="N102" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O102" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O102" s="22">
+      <c r="P102" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q102" s="35">
+      <c r="R102" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R102" s="35">
+      <c r="S102" s="35">
         <f t="shared" si="50"/>
         <v>0.00255454294393814</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:19">
       <c r="A103" s="3">
         <v>17</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D103" s="22">
         <v>17</v>
@@ -10975,36 +11092,37 @@
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
-      <c r="N103" s="22">
+      <c r="N103" s="3"/>
+      <c r="O103" s="22">
         <f t="shared" si="51"/>
         <v>2567</v>
       </c>
-      <c r="O103" s="22">
+      <c r="P103" s="22">
         <f t="shared" si="52"/>
         <v>2635</v>
       </c>
-      <c r="P103" s="3">
+      <c r="Q103" s="3">
         <f t="shared" si="53"/>
         <v>2601</v>
       </c>
-      <c r="Q103" s="35">
+      <c r="R103" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R103" s="35">
+      <c r="S103" s="35">
         <f t="shared" si="50"/>
         <v>0.00253571338906882</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:19">
       <c r="A104" s="3">
         <v>17</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D104" s="22">
         <v>17</v>
@@ -11036,36 +11154,37 @@
       </c>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" s="22">
+      <c r="N104" s="3"/>
+      <c r="O104" s="22">
         <f t="shared" si="51"/>
         <v>2771</v>
       </c>
-      <c r="O104" s="22">
+      <c r="P104" s="22">
         <f t="shared" si="52"/>
         <v>2822</v>
       </c>
-      <c r="P104" s="3">
+      <c r="Q104" s="3">
         <f t="shared" si="53"/>
         <v>2796.5</v>
       </c>
-      <c r="Q104" s="35">
+      <c r="R104" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R104" s="35">
+      <c r="S104" s="35">
         <f t="shared" si="50"/>
         <v>0.00251311792322563</v>
       </c>
     </row>
-    <row r="105" ht="28.5" spans="1:18">
+    <row r="105" ht="28.5" spans="1:19">
       <c r="A105" s="3">
         <v>17</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D105" s="22">
         <v>-20</v>
@@ -11096,37 +11215,40 @@
         <v>180</v>
       </c>
       <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="22">
+      <c r="M105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" s="22">
         <f t="shared" si="51"/>
         <v>-3120</v>
       </c>
-      <c r="O105" s="22">
+      <c r="P105" s="22">
         <f t="shared" si="52"/>
         <v>-3320</v>
       </c>
-      <c r="P105" s="3">
+      <c r="Q105" s="3">
         <f t="shared" si="53"/>
         <v>-3220</v>
       </c>
-      <c r="Q105" s="35">
+      <c r="R105" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R105" s="35">
+      <c r="S105" s="35">
         <f t="shared" si="50"/>
         <v>0.00248550124275062</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="1:18">
+    <row r="106" ht="28.5" spans="1:19">
       <c r="A106" s="3">
         <v>17</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" s="22">
         <v>1</v>
@@ -11159,39 +11281,40 @@
       <c r="L106" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M106" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N106" s="22">
+      <c r="M106" s="22"/>
+      <c r="N106" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O106" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O106" s="22">
+      <c r="P106" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P106" s="3">
+      <c r="Q106" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q106" s="35">
+      <c r="R106" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R106" s="35">
+      <c r="S106" s="35">
         <f t="shared" si="50"/>
         <v>0.00252002209334438</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:19">
       <c r="A107" s="3">
         <v>17</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="22">
         <v>17</v>
@@ -11223,36 +11346,37 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
-      <c r="N107" s="22">
+      <c r="N107" s="3"/>
+      <c r="O107" s="22">
         <f t="shared" si="51"/>
         <v>2567</v>
       </c>
-      <c r="O107" s="22">
+      <c r="P107" s="22">
         <f t="shared" si="52"/>
         <v>2873</v>
       </c>
-      <c r="P107" s="3">
+      <c r="Q107" s="3">
         <f t="shared" si="53"/>
         <v>2720</v>
       </c>
-      <c r="Q107" s="35">
+      <c r="R107" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R107" s="35">
+      <c r="S107" s="35">
         <f t="shared" si="50"/>
         <v>0.00272221564682211</v>
       </c>
     </row>
-    <row r="108" ht="28.5" spans="1:18">
+    <row r="108" ht="28.5" spans="1:19">
       <c r="A108" s="3">
         <v>17</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" s="22">
         <v>1</v>
@@ -11285,39 +11409,40 @@
       <c r="L108" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M108" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N108" s="22">
+      <c r="M108" s="22"/>
+      <c r="N108" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O108" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O108" s="22">
+      <c r="P108" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P108" s="3">
+      <c r="Q108" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q108" s="35">
+      <c r="R108" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R108" s="35">
+      <c r="S108" s="35">
         <f t="shared" si="50"/>
         <v>0.00285372364908405</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:19">
       <c r="A109" s="3">
         <v>17</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D109" s="22">
         <v>17</v>
@@ -11349,36 +11474,37 @@
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
-      <c r="N109" s="22">
+      <c r="N109" s="3"/>
+      <c r="O109" s="22">
         <f t="shared" si="51"/>
         <v>2601</v>
       </c>
-      <c r="O109" s="22">
+      <c r="P109" s="22">
         <f t="shared" si="52"/>
         <v>2635</v>
       </c>
-      <c r="P109" s="3">
+      <c r="Q109" s="3">
         <f t="shared" si="53"/>
         <v>2618</v>
       </c>
-      <c r="Q109" s="35">
+      <c r="R109" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R109" s="35">
+      <c r="S109" s="35">
         <f t="shared" si="50"/>
         <v>0.00336923501795084</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:19">
       <c r="A110" s="3">
         <v>17</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D110" s="22">
         <v>17</v>
@@ -11410,36 +11536,37 @@
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
-      <c r="N110" s="22">
+      <c r="N110" s="3"/>
+      <c r="O110" s="22">
         <f t="shared" si="51"/>
         <v>2822</v>
       </c>
-      <c r="O110" s="22">
+      <c r="P110" s="22">
         <f t="shared" si="52"/>
         <v>2754</v>
       </c>
-      <c r="P110" s="3">
+      <c r="Q110" s="3">
         <f t="shared" si="53"/>
         <v>2788</v>
       </c>
-      <c r="Q110" s="35">
+      <c r="R110" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R110" s="35">
+      <c r="S110" s="35">
         <f t="shared" si="50"/>
         <v>0.00214029273681303</v>
       </c>
     </row>
-    <row r="111" ht="28.5" spans="1:18">
+    <row r="111" ht="28.5" spans="1:19">
       <c r="A111" s="3">
         <v>17</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D111" s="22">
         <v>1</v>
@@ -11472,39 +11599,40 @@
       <c r="L111" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M111" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N111" s="22">
+      <c r="M111" s="22"/>
+      <c r="N111" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O111" s="22">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="O111" s="22">
+      <c r="P111" s="22">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
-      <c r="P111" s="3">
+      <c r="Q111" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
       </c>
-      <c r="Q111" s="35">
+      <c r="R111" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R111" s="35">
+      <c r="S111" s="35">
         <f t="shared" si="50"/>
         <v>0.000828500414250207</v>
       </c>
     </row>
-    <row r="112" ht="28.5" spans="1:18">
+    <row r="112" ht="28.5" spans="1:19">
       <c r="A112" s="3">
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D112" s="22">
         <v>222</v>
@@ -11536,36 +11664,37 @@
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
-      <c r="N112" s="22">
+      <c r="N112" s="3"/>
+      <c r="O112" s="22">
         <f t="shared" si="51"/>
         <v>22200</v>
       </c>
-      <c r="O112" s="22">
+      <c r="P112" s="22">
         <f t="shared" si="52"/>
         <v>147852</v>
       </c>
-      <c r="P112" s="3">
+      <c r="Q112" s="3">
         <f t="shared" si="53"/>
         <v>85026</v>
       </c>
-      <c r="Q112" s="35">
+      <c r="R112" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R112" s="35">
+      <c r="S112" s="35">
         <f t="shared" si="50"/>
         <v>0.000690417011875173</v>
       </c>
     </row>
-    <row r="113" ht="28.5" spans="1:18">
+    <row r="113" ht="28.5" spans="1:19">
       <c r="A113" s="3">
         <v>17</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D113" s="22">
         <v>222</v>
@@ -11597,34 +11726,35 @@
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
-      <c r="N113" s="22">
+      <c r="N113" s="3"/>
+      <c r="O113" s="22">
         <f t="shared" si="51"/>
         <v>66600</v>
       </c>
-      <c r="O113" s="22">
+      <c r="P113" s="22">
         <f t="shared" si="52"/>
         <v>221778</v>
       </c>
-      <c r="P113" s="3">
+      <c r="Q113" s="3">
         <f t="shared" si="53"/>
         <v>144189</v>
       </c>
-      <c r="Q113" s="35">
+      <c r="R113" s="35">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R113" s="35">
+      <c r="S113" s="35">
         <f t="shared" si="50"/>
         <v>0.000552333609500138</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L2 L4:L14 L16:L94 L96:L1048576">
+  <conditionalFormatting sqref="L1:M2 L4:M14 L16:M94 L96:M1048576">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R113">
+  <conditionalFormatting sqref="R2:S113">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11647,10 +11777,10 @@
   <sheetPr/>
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78333333333333" defaultRowHeight="14.25"/>
@@ -11668,60 +11798,60 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G2" s="19" t="b">
         <v>0</v>
@@ -11736,22 +11866,22 @@
     </row>
     <row r="3" ht="59.25" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E3" s="8">
         <v>20000</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G3" s="19" t="b">
         <v>1</v>
@@ -11766,16 +11896,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E4" s="8">
         <v>5</v>
@@ -11794,16 +11924,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E5" s="8">
         <v>5</v>
@@ -11822,16 +11952,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
@@ -11850,16 +11980,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E7" s="8">
         <v>5</v>
@@ -11878,16 +12008,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E8" s="8">
         <v>5</v>
@@ -11906,16 +12036,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E9" s="8">
         <v>5</v>
@@ -11934,16 +12064,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" s="8">
         <v>10</v>
@@ -11962,16 +12092,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E11" s="8">
         <v>10</v>
@@ -11990,16 +12120,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -12018,16 +12148,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E13" s="8">
         <v>10</v>
@@ -12046,16 +12176,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E14" s="8">
         <v>10</v>
@@ -12074,16 +12204,16 @@
     </row>
     <row r="15" ht="28.5" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E15" s="8">
         <v>8</v>
@@ -12102,22 +12232,22 @@
     </row>
     <row r="16" ht="28.5" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="19" t="b">
         <v>0</v>
@@ -12132,22 +12262,22 @@
     </row>
     <row r="17" ht="42.75" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G17" s="19" t="b">
         <v>0</v>
@@ -12162,16 +12292,16 @@
     </row>
     <row r="18" ht="42.75" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -12190,16 +12320,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
@@ -12218,16 +12348,16 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="E20" s="8">
         <v>12</v>
@@ -12246,22 +12376,22 @@
     </row>
     <row r="21" ht="29.8" customHeight="1" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G21" s="19" t="b">
         <v>0</v>
@@ -12276,22 +12406,22 @@
     </row>
     <row r="22" ht="57" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G22" s="19" t="b">
         <v>0</v>
@@ -12304,22 +12434,22 @@
     </row>
     <row r="23" ht="36.55" customHeight="1" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G23" s="19" t="b">
         <v>0</v>
@@ -12332,22 +12462,22 @@
     </row>
     <row r="24" ht="28.85" customHeight="1" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G24" s="19" t="b">
         <v>0</v>
@@ -12360,16 +12490,16 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E25" s="8">
         <v>20000</v>
@@ -12386,16 +12516,16 @@
     </row>
     <row r="26" ht="28.5" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E26" s="3">
         <v>9802999</v>
@@ -12412,16 +12542,16 @@
     </row>
     <row r="27" ht="28.5" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E27" s="3">
         <v>98029</v>
@@ -12438,28 +12568,28 @@
     </row>
     <row r="28" ht="42.75" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G28" s="19" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -12468,16 +12598,16 @@
     </row>
     <row r="29" ht="28.5" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E29" s="3">
         <v>3000</v>
@@ -12494,16 +12624,16 @@
     </row>
     <row r="30" ht="28.5" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E30" s="3">
         <v>3000</v>
@@ -12520,16 +12650,16 @@
     </row>
     <row r="31" ht="28.5" hidden="1" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E31" s="3">
         <v>2000</v>
@@ -12548,22 +12678,22 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E32" s="3">
         <v>5200</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G32" s="19" t="b">
         <v>1</v>
@@ -12576,22 +12706,22 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E33" s="3">
         <v>5200</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G33" s="19" t="b">
         <v>1</v>
@@ -12604,22 +12734,22 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E34" s="3">
         <v>5200</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G34" s="19" t="b">
         <v>1</v>
@@ -12632,16 +12762,16 @@
     </row>
     <row r="35" ht="28.5" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E35" s="3">
         <v>5000</v>
@@ -12658,16 +12788,16 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E36" s="19">
         <v>30</v>
@@ -12686,16 +12816,16 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E37" s="19">
         <v>60</v>
@@ -12714,16 +12844,16 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E38" s="19">
         <v>90</v>
@@ -12742,16 +12872,16 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E39" s="19">
         <v>120</v>
@@ -12770,16 +12900,16 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E40" s="19">
         <v>0</v>
@@ -12800,16 +12930,16 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E41" s="19">
         <v>10</v>
@@ -12828,22 +12958,22 @@
     </row>
     <row r="42" ht="63" customHeight="1" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E42" s="3">
         <v>12</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G42" s="19" t="b">
         <v>0</v>
@@ -12856,16 +12986,16 @@
     </row>
     <row r="43" s="13" customFormat="1" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E43" s="3">
         <v>36</v>
@@ -12884,16 +13014,16 @@
     </row>
     <row r="44" ht="28.5" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E44" s="3">
         <v>3600</v>
@@ -12912,16 +13042,16 @@
     </row>
     <row r="45" ht="28.5" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E45" s="3">
         <v>3600</v>
@@ -12940,16 +13070,16 @@
     </row>
     <row r="46" ht="28.5" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E46" s="3">
         <v>50</v>
@@ -12968,16 +13098,16 @@
     </row>
     <row r="47" ht="28.5" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E47" s="3">
         <v>50</v>
@@ -12996,16 +13126,16 @@
     </row>
     <row r="48" ht="28.5" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E48" s="3">
         <v>90</v>
@@ -13024,16 +13154,16 @@
     </row>
     <row r="49" ht="28.5" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E49" s="3">
         <v>90</v>
@@ -13052,16 +13182,16 @@
     </row>
     <row r="50" ht="57" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -13082,16 +13212,16 @@
     </row>
     <row r="51" ht="16.5" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -13112,16 +13242,16 @@
     </row>
     <row r="52" ht="45" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -13138,16 +13268,16 @@
     </row>
     <row r="53" ht="28.5" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E53" s="3">
         <v>20</v>
@@ -13168,16 +13298,16 @@
     </row>
     <row r="54" ht="28.5" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E54" s="3">
         <v>20</v>
@@ -13198,16 +13328,16 @@
     </row>
     <row r="55" ht="28.5" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E55" s="3">
         <v>20</v>
@@ -13228,16 +13358,16 @@
     </row>
     <row r="56" ht="28.5" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E56" s="3">
         <v>20</v>
@@ -13258,16 +13388,16 @@
     </row>
     <row r="57" ht="28.5" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E57" s="3">
         <v>20</v>
@@ -13288,16 +13418,16 @@
     </row>
     <row r="58" ht="28.5" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E58" s="3">
         <v>20</v>
@@ -13318,16 +13448,16 @@
     </row>
     <row r="59" ht="28.5" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E59" s="3">
         <v>20</v>
@@ -13348,16 +13478,16 @@
     </row>
     <row r="60" ht="28.5" spans="1:12">
       <c r="A60" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E60" s="3">
         <v>20</v>
@@ -13378,16 +13508,16 @@
     </row>
     <row r="61" ht="28.5" spans="1:12">
       <c r="A61" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E61" s="3">
         <v>20</v>
@@ -13408,16 +13538,16 @@
     </row>
     <row r="62" ht="28.5" spans="1:12">
       <c r="A62" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E62" s="3">
         <v>20</v>
@@ -13438,16 +13568,16 @@
     </row>
     <row r="63" ht="57" spans="1:12">
       <c r="A63" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -13466,16 +13596,16 @@
     </row>
     <row r="64" ht="28.5" spans="1:12">
       <c r="A64" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E64" s="3">
         <v>20</v>
@@ -13496,16 +13626,16 @@
     </row>
     <row r="65" ht="28.5" spans="1:12">
       <c r="A65" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E65" s="3">
         <v>20</v>
@@ -13526,16 +13656,16 @@
     </row>
     <row r="66" ht="28.5" spans="1:12">
       <c r="A66" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E66" s="3">
         <v>20</v>
@@ -13556,16 +13686,16 @@
     </row>
     <row r="67" ht="28.5" spans="1:12">
       <c r="A67" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E67" s="3">
         <v>20</v>
@@ -13586,16 +13716,16 @@
     </row>
     <row r="68" ht="28.5" spans="1:12">
       <c r="A68" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E68" s="3">
         <v>20</v>
@@ -13616,16 +13746,16 @@
     </row>
     <row r="69" ht="28.5" spans="1:12">
       <c r="A69" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E69" s="3">
         <v>20</v>
@@ -13646,16 +13776,16 @@
     </row>
     <row r="70" ht="28.5" spans="1:12">
       <c r="A70" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E70" s="3">
         <v>20</v>
@@ -13676,16 +13806,16 @@
     </row>
     <row r="71" ht="28.5" spans="1:12">
       <c r="A71" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E71" s="3">
         <v>20</v>
@@ -13706,16 +13836,16 @@
     </row>
     <row r="72" ht="28.5" spans="1:12">
       <c r="A72" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E72" s="3">
         <v>20</v>
@@ -13736,16 +13866,16 @@
     </row>
     <row r="73" ht="28.5" spans="1:12">
       <c r="A73" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E73" s="3">
         <v>20</v>
@@ -13766,16 +13896,16 @@
     </row>
     <row r="74" ht="28.5" spans="1:12">
       <c r="A74" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E74" s="3">
         <v>20</v>
@@ -13796,16 +13926,16 @@
     </row>
     <row r="75" ht="28.5" spans="1:12">
       <c r="A75" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E75" s="3">
         <v>20</v>
@@ -13826,16 +13956,16 @@
     </row>
     <row r="76" ht="28.5" spans="1:12">
       <c r="A76" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E76" s="3">
         <v>20</v>
@@ -13856,16 +13986,16 @@
     </row>
     <row r="77" ht="28.5" spans="1:12">
       <c r="A77" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E77" s="3">
         <v>20</v>
@@ -13886,16 +14016,16 @@
     </row>
     <row r="78" ht="28.5" spans="1:12">
       <c r="A78" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E78" s="3">
         <v>20</v>
@@ -13916,16 +14046,16 @@
     </row>
     <row r="79" ht="28.5" spans="1:12">
       <c r="A79" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E79" s="3">
         <v>20</v>
@@ -13946,16 +14076,16 @@
     </row>
     <row r="80" ht="28.5" spans="1:12">
       <c r="A80" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E80" s="3">
         <v>20</v>
@@ -13976,16 +14106,16 @@
     </row>
     <row r="81" ht="28.5" spans="1:12">
       <c r="A81" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E81" s="3">
         <v>20</v>
@@ -14006,16 +14136,16 @@
     </row>
     <row r="82" ht="28.5" spans="1:12">
       <c r="A82" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E82" s="3">
         <v>20</v>
@@ -14036,16 +14166,16 @@
     </row>
     <row r="83" ht="28.5" spans="1:12">
       <c r="A83" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E83" s="3">
         <v>20</v>
@@ -14066,16 +14196,16 @@
     </row>
     <row r="84" ht="28.5" spans="1:12">
       <c r="A84" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E84" s="14">
         <v>10</v>
@@ -14090,16 +14220,16 @@
     </row>
     <row r="85" ht="28.5" spans="1:12">
       <c r="A85" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E85" s="14">
         <v>10</v>
@@ -14114,16 +14244,16 @@
     </row>
     <row r="86" ht="28.5" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E86" s="14">
         <v>10</v>
@@ -14138,16 +14268,16 @@
     </row>
     <row r="87" ht="28.5" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E87" s="14">
         <v>10</v>
@@ -14162,16 +14292,16 @@
     </row>
     <row r="88" ht="28.5" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E88" s="14">
         <v>10</v>
@@ -14186,16 +14316,16 @@
     </row>
     <row r="89" ht="28.5" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E89" s="14">
         <v>10</v>
@@ -14210,16 +14340,16 @@
     </row>
     <row r="90" ht="28.5" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E90" s="14">
         <v>10</v>
@@ -14234,16 +14364,16 @@
     </row>
     <row r="91" ht="28.5" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E91" s="14">
         <v>10</v>
@@ -14258,16 +14388,16 @@
     </row>
     <row r="92" ht="28.5" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E92" s="14">
         <v>10</v>
@@ -14282,16 +14412,16 @@
     </row>
     <row r="93" ht="28.5" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E93" s="14">
         <v>10</v>
@@ -14306,16 +14436,16 @@
     </row>
     <row r="94" ht="28.5" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E94" s="14">
         <v>10</v>
@@ -14330,16 +14460,16 @@
     </row>
     <row r="95" ht="28.5" spans="1:12">
       <c r="A95" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E95" s="14">
         <v>10</v>
@@ -14354,22 +14484,22 @@
     </row>
     <row r="96" ht="71.25" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E96" s="14">
         <v>0</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G96" s="19" t="b">
         <v>0</v>
@@ -14380,16 +14510,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E97" s="14">
         <v>0</v>
@@ -14400,16 +14530,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="E98" s="14">
         <v>0</v>
@@ -14420,16 +14550,16 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E99" s="14">
         <v>0</v>
@@ -14468,42 +14598,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -14514,16 +14644,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -14532,16 +14662,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -14550,16 +14680,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -14568,16 +14698,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -14586,13 +14716,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7">
@@ -14602,13 +14732,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8">
@@ -14618,13 +14748,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9">
@@ -14634,13 +14764,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10">
@@ -14650,136 +14780,136 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E15" s="3">
         <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E17" s="3">
         <v>7</v>
@@ -14788,13 +14918,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -14805,13 +14935,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -14822,13 +14952,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -14839,13 +14969,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -14856,56 +14986,56 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E24" s="3">
         <v>10</v>
@@ -14914,16 +15044,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -14932,16 +15062,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -14950,16 +15080,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
@@ -14968,13 +15098,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28">
@@ -14984,13 +15114,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29">
@@ -15000,13 +15130,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E30" s="3"/>
       <c r="G30">
@@ -15016,13 +15146,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E31" s="3"/>
       <c r="G31">
@@ -15032,136 +15162,136 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E32" s="3">
         <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E34" s="3">
         <v>6</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E35" s="3">
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E36" s="3">
         <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E37" s="3">
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -15170,13 +15300,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39">
@@ -15186,13 +15316,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40">
@@ -15202,13 +15332,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E41" s="3"/>
       <c r="G41">
@@ -15218,13 +15348,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E42" s="3"/>
       <c r="G42">
@@ -15234,116 +15364,116 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E43" s="3">
         <v>5</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E44" s="3">
         <v>4</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -15352,13 +15482,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49">
@@ -15368,13 +15498,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50">
@@ -15384,13 +15514,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E51" s="3"/>
       <c r="G51">
@@ -15400,13 +15530,13 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="3"/>
       <c r="G52">
@@ -15416,116 +15546,116 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E54" s="3">
         <v>4</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E57" s="3">
         <v>3</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -15534,16 +15664,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -15552,13 +15682,13 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -15569,13 +15699,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -15586,13 +15716,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -15603,13 +15733,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -15620,33 +15750,33 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -15657,13 +15787,13 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -15674,73 +15804,73 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E67" s="3">
         <v>20</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E69" s="3">
         <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F70">
         <v>1000</v>
@@ -15748,13 +15878,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D71" s="3"/>
       <c r="F71">
@@ -15763,13 +15893,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F72">
         <v>800</v>
@@ -15777,13 +15907,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F73">
         <v>700</v>
@@ -15791,13 +15921,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G74">
         <v>4000</v>
@@ -15805,13 +15935,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G75">
         <v>3600</v>
@@ -15819,13 +15949,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G76">
         <v>3200</v>
@@ -15833,13 +15963,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G77">
         <v>2800</v>
@@ -15847,16 +15977,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
@@ -15893,127 +16023,127 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>674</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>677</v>
-      </c>
       <c r="I2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="F5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -16041,362 +16171,362 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E1" s="3">
         <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E15" s="3">
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E18" s="3">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/fish_2406.xlsx
+++ b/src/main/resources/fish_2406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715952D4-0AF8-BA45-887E-ECCD5272FCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE97CE-910A-354F-BA81-438DF4C2CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="0" windowWidth="37000" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11614,7 +11614,7 @@
         <v>644</v>
       </c>
       <c r="G2" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>

--- a/src/main/resources/fish_2406.xlsx
+++ b/src/main/resources/fish_2406.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k3024\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE97CE-910A-354F-BA81-438DF4C2CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA316B39-77E7-47D5-9046-69E5AE0FE120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="37000" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="16150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -4400,35 +4400,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="6.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="19" width="12.83203125" style="30" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.81640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="32">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="28.8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16">
+    <row r="4" spans="1:22">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>9.6658381662524159E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16">
+    <row r="5" spans="1:22">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>1.2593206296603149E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16">
+    <row r="7" spans="1:22">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>1.7490564300837706E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16">
+    <row r="9" spans="1:22">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>4.004418668876001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16">
+    <row r="11" spans="1:22">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>9.9420049710024858E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16">
+    <row r="15" spans="1:22">
       <c r="A15" s="7">
         <v>2</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>2.1541010770505385E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16">
+    <row r="19" spans="1:22">
       <c r="A19" s="7">
         <v>2</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>3.7558685446009391E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16">
+    <row r="20" spans="1:22">
       <c r="A20" s="7">
         <v>3</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>7.0882813219184382E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16">
+    <row r="21" spans="1:22">
       <c r="A21" s="7">
         <v>3</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1.1654239160452915E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16">
+    <row r="25" spans="1:22">
       <c r="A25" s="7">
         <v>3</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1.5741507870753936E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16">
+    <row r="27" spans="1:22">
       <c r="A27" s="7">
         <v>3</v>
       </c>
@@ -6273,30 +6273,29 @@
         <v>215</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
         <v>40</v>
@@ -6306,15 +6305,15 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="10">
         <f t="shared" si="13"/>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="R30" s="31">
         <f t="shared" si="15"/>
@@ -6388,7 +6387,7 @@
         <v>8.1271945397877448E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="32">
+    <row r="32" spans="1:22" ht="28.8">
       <c r="A32" s="7">
         <v>4</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>1.2013256006628002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="32">
+    <row r="35" spans="1:22" ht="28.8">
       <c r="A35" s="7">
         <v>4</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>1.3808340237503451E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16">
+    <row r="36" spans="1:22">
       <c r="A36" s="7">
         <v>4</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>1.8088925711129522E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="32">
+    <row r="37" spans="1:22" ht="28.8">
       <c r="A37" s="7">
         <v>4</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>3.2587682960508145E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16">
+    <row r="38" spans="1:22">
       <c r="A38" s="7">
         <v>5</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>9.1135045567522777E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16">
+    <row r="42" spans="1:22">
       <c r="A42" s="7">
         <v>5</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>1.0383871858602596E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16">
+    <row r="43" spans="1:22">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>1.4820951854920371E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16">
+    <row r="45" spans="1:22">
       <c r="A45" s="7">
         <v>5</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>1.9469759734879868E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16">
+    <row r="46" spans="1:22">
       <c r="A46" s="7">
         <v>5</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>3.0102181717757526E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="160">
+    <row r="47" spans="1:22" ht="144">
       <c r="A47" s="7">
         <v>6</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>6.7660867163766916E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16">
+    <row r="49" spans="1:19">
       <c r="A49" s="7">
         <v>6</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>7.870753935376968E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="16">
+    <row r="51" spans="1:19">
       <c r="A51" s="7">
         <v>6</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>7.870753935376968E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="16">
+    <row r="52" spans="1:19">
       <c r="A52" s="7">
         <v>6</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>1.2795728620086532E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16">
+    <row r="54" spans="1:19">
       <c r="A54" s="7">
         <v>6</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>1.6017674675504003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="16">
+    <row r="55" spans="1:19">
       <c r="A55" s="7">
         <v>6</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>2.7616680475006903E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="16">
+    <row r="56" spans="1:19">
       <c r="A56" s="7">
         <v>7</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>6.0756697045015193E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="32">
+    <row r="58" spans="1:19" ht="28.8">
       <c r="A58" s="7">
         <v>7</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>1.5327257663628831E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="32">
+    <row r="64" spans="1:19" ht="28.8">
       <c r="A64" s="7">
         <v>7</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>6.1309030654515323E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="16">
+    <row r="66" spans="1:19">
       <c r="A66" s="7">
         <v>9</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>3.7910170470236756E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="16">
+    <row r="68" spans="1:19">
       <c r="A68" s="7">
         <v>9</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>3.8939519469759739E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="16">
+    <row r="69" spans="1:19">
       <c r="A69" s="7">
         <v>9</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>3.8939519469759739E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="16">
+    <row r="70" spans="1:19">
       <c r="A70" s="7">
         <v>9</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>4.7737404821083362E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="16">
+    <row r="71" spans="1:19">
       <c r="A71" s="7">
         <v>9</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>4.7737404821083362E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="16">
+    <row r="73" spans="1:19">
       <c r="A73" s="7">
         <v>9</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>8.3770597440854262E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="16">
+    <row r="75" spans="1:19">
       <c r="A75" s="7">
         <v>9</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>1.1184755592377795E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="16">
+    <row r="76" spans="1:19">
       <c r="A76" s="7">
         <v>9</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>2.0160176746755038E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="16">
+    <row r="77" spans="1:19">
       <c r="A77" s="10">
         <v>11</v>
       </c>
@@ -9291,7 +9290,7 @@
         <v>5.1682644888941488E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="16">
+    <row r="78" spans="1:19">
       <c r="A78" s="10">
         <v>11</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>3.935376967688484E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="32">
+    <row r="79" spans="1:19" ht="28.8">
       <c r="A79" s="10">
         <v>11</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>4.0420777786146465E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="16">
+    <row r="80" spans="1:19">
       <c r="A80" s="10">
         <v>11</v>
       </c>
@@ -9481,7 +9480,7 @@
         <v>4.4186688760011047E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="16">
+    <row r="81" spans="1:19">
       <c r="A81" s="10">
         <v>11</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>4.6334652796956033E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="32">
+    <row r="82" spans="1:19" ht="28.8">
       <c r="A82" s="10">
         <v>11</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>4.8329190831262079E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="16">
+    <row r="83" spans="1:19">
       <c r="A83" s="10">
         <v>11</v>
       </c>
@@ -9671,7 +9670,7 @@
         <v>5.7995028997514493E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="16">
+    <row r="84" spans="1:19">
       <c r="A84" s="10">
         <v>11</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>6.462303231151616E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="32">
+    <row r="85" spans="1:19" ht="28.8">
       <c r="A85" s="10">
         <v>11</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>7.4565037282518639E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="32">
+    <row r="86" spans="1:19" ht="28.8">
       <c r="A86" s="10">
         <v>11</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>8.1929485409187146E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="16">
+    <row r="87" spans="1:19">
       <c r="A87" s="10">
         <v>11</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>9.1135045567522777E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="16">
+    <row r="88" spans="1:19">
       <c r="A88" s="10">
         <v>11</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>1.5189174261253798E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="16">
+    <row r="89" spans="1:19">
       <c r="A89" s="10">
         <v>14</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>3.2449599558133113E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="16">
+    <row r="90" spans="1:19">
       <c r="A90" s="10">
         <v>14</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>3.0378348522507592E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="32">
+    <row r="91" spans="1:19" ht="28.8">
       <c r="A91" s="10">
         <v>14</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>3.0654515327257661E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="16">
+    <row r="92" spans="1:19">
       <c r="A92" s="10">
         <v>14</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>3.0992052533063302E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="32">
+    <row r="93" spans="1:19" ht="28.8">
       <c r="A93" s="10">
         <v>14</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>3.0992052533063302E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="32">
+    <row r="94" spans="1:19" ht="28.8">
       <c r="A94" s="10">
         <v>14</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>3.3929064583579911E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="16">
+    <row r="95" spans="1:19">
       <c r="A95" s="10">
         <v>14</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>3.866335266500967E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="32">
+    <row r="96" spans="1:19" ht="28.8">
       <c r="A96" s="10">
         <v>14</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>4.4739022369511185E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="16">
+    <row r="97" spans="1:19">
       <c r="A97" s="10">
         <v>14</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>5.247169290251312E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="16">
+    <row r="98" spans="1:19">
       <c r="A98" s="10">
         <v>14</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>6.0756697045015184E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="16">
+    <row r="99" spans="1:19">
       <c r="A99" s="10">
         <v>14</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>6.3518365092515884E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="32">
+    <row r="100" spans="1:19" ht="28.8">
       <c r="A100" s="10">
         <v>14</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>7.732670533001933E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="16">
+    <row r="101" spans="1:19">
       <c r="A101" s="10">
         <v>17</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>2.7846819478965293E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="32">
+    <row r="102" spans="1:19" ht="28.8">
       <c r="A102" s="10">
         <v>17</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>2.7867741206597874E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="16">
+    <row r="103" spans="1:19">
       <c r="A103" s="10">
         <v>17</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>2.7892847279756975E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="16">
+    <row r="104" spans="1:19">
       <c r="A104" s="10">
         <v>17</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>2.7923532480284754E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="32">
+    <row r="105" spans="1:19" ht="28.8">
       <c r="A105" s="10">
         <v>17</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>2.7961888980944489E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="32">
+    <row r="106" spans="1:19" ht="28.8">
       <c r="A106" s="10">
         <v>17</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>2.8800252495364341E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="16">
+    <row r="107" spans="1:19">
       <c r="A107" s="10">
         <v>17</v>
       </c>
@@ -11192,7 +11191,7 @@
         <v>3.1759182546257938E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="32">
+    <row r="108" spans="1:19" ht="28.8">
       <c r="A108" s="10">
         <v>17</v>
       </c>
@@ -11258,7 +11257,7 @@
         <v>3.424468378900856E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="16">
+    <row r="109" spans="1:19">
       <c r="A109" s="10">
         <v>17</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>4.2115437724385531E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="16">
+    <row r="110" spans="1:19">
       <c r="A110" s="10">
         <v>17</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>2.8537236490840463E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="32">
+    <row r="111" spans="1:19" ht="28.8">
       <c r="A111" s="10">
         <v>17</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>2.4855012427506215E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="32">
+    <row r="112" spans="1:19" ht="28.8">
       <c r="A112" s="10">
         <v>17</v>
       </c>
@@ -11538,25 +11537,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>129</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
         <v>155</v>
       </c>
@@ -11624,7 +11623,7 @@
       </c>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="66">
+    <row r="3" spans="1:12" ht="60.95">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -11654,7 +11653,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>157</v>
       </c>
@@ -11682,7 +11681,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>158</v>
       </c>
@@ -11710,7 +11709,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>159</v>
       </c>
@@ -11738,7 +11737,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
         <v>160</v>
       </c>
@@ -11766,7 +11765,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
         <v>161</v>
       </c>
@@ -11794,7 +11793,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
         <v>162</v>
       </c>
@@ -11822,7 +11821,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
         <v>163</v>
       </c>
@@ -11850,7 +11849,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
         <v>164</v>
       </c>
@@ -11878,7 +11877,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
         <v>165</v>
       </c>
@@ -11906,7 +11905,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
         <v>166</v>
       </c>
@@ -11934,7 +11933,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12">
       <c r="A14" s="10" t="s">
         <v>167</v>
       </c>
@@ -11962,7 +11961,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="32">
+    <row r="15" spans="1:12" ht="28.8">
       <c r="A15" s="10" t="s">
         <v>168</v>
       </c>
@@ -11990,7 +11989,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="32">
+    <row r="16" spans="1:12" ht="28.8">
       <c r="A16" s="10" t="s">
         <v>458</v>
       </c>
@@ -12020,7 +12019,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="32">
+    <row r="17" spans="1:12" ht="28.8">
       <c r="A17" s="10" t="s">
         <v>169</v>
       </c>
@@ -12050,7 +12049,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="48">
+    <row r="18" spans="1:12" ht="43.2">
       <c r="A18" s="10" t="s">
         <v>170</v>
       </c>
@@ -12078,7 +12077,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
         <v>171</v>
       </c>
@@ -12106,7 +12105,7 @@
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12">
       <c r="A20" s="10" t="s">
         <v>172</v>
       </c>
@@ -12134,7 +12133,7 @@
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="29.75" customHeight="1">
+    <row r="21" spans="1:12" ht="29.8" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>173</v>
       </c>
@@ -12164,7 +12163,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="64">
+    <row r="22" spans="1:12" ht="43.2">
       <c r="A22" s="10" t="s">
         <v>174</v>
       </c>
@@ -12192,7 +12191,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="36.5" customHeight="1">
+    <row r="23" spans="1:12" ht="36.549999999999997" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>175</v>
       </c>
@@ -12220,7 +12219,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="28.75" customHeight="1">
+    <row r="24" spans="1:12" ht="28.8" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>176</v>
       </c>
@@ -12248,7 +12247,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="16">
+    <row r="25" spans="1:12">
       <c r="A25" s="10" t="s">
         <v>177</v>
       </c>
@@ -12274,7 +12273,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="32">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="10" t="s">
         <v>178</v>
       </c>
@@ -12300,7 +12299,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="32">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="10" t="s">
         <v>179</v>
       </c>
@@ -12326,7 +12325,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="32">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="10" t="s">
         <v>180</v>
       </c>
@@ -12356,7 +12355,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" ht="32">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="10" t="s">
         <v>181</v>
       </c>
@@ -12382,7 +12381,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" ht="32">
+    <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="10" t="s">
         <v>182</v>
       </c>
@@ -12408,7 +12407,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" ht="32">
+    <row r="31" spans="1:12" ht="28.8">
       <c r="A31" s="10" t="s">
         <v>183</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16">
+    <row r="32" spans="1:12">
       <c r="A32" s="10" t="s">
         <v>186</v>
       </c>
@@ -12464,7 +12463,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" ht="16">
+    <row r="33" spans="1:12">
       <c r="A33" s="10" t="s">
         <v>189</v>
       </c>
@@ -12492,7 +12491,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" ht="16">
+    <row r="34" spans="1:12">
       <c r="A34" s="10" t="s">
         <v>193</v>
       </c>
@@ -12520,7 +12519,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="32">
+    <row r="35" spans="1:12" ht="28.8">
       <c r="A35" s="10" t="s">
         <v>195</v>
       </c>
@@ -12744,7 +12743,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="16">
+    <row r="43" spans="1:12" s="3" customFormat="1">
       <c r="A43" s="10" t="s">
         <v>365</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="32">
+    <row r="44" spans="1:12" ht="28.8">
       <c r="A44" s="10" t="s">
         <v>369</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="32">
+    <row r="45" spans="1:12" ht="28.8">
       <c r="A45" s="10" t="s">
         <v>373</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="32">
+    <row r="46" spans="1:12" ht="28.8">
       <c r="A46" s="10" t="s">
         <v>376</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="32">
+    <row r="47" spans="1:12" ht="28.8">
       <c r="A47" s="10" t="s">
         <v>380</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="32">
+    <row r="48" spans="1:12" ht="28.8">
       <c r="A48" s="10" t="s">
         <v>384</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="32">
+    <row r="49" spans="1:12" ht="28.8">
       <c r="A49" s="10" t="s">
         <v>388</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="48">
+    <row r="50" spans="1:12" ht="43.2">
       <c r="A50" s="10" t="s">
         <v>392</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="39">
+    <row r="51" spans="1:12" ht="28.8">
       <c r="A51" s="10" t="s">
         <v>395</v>
       </c>
@@ -13000,7 +12999,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" ht="32">
+    <row r="52" spans="1:12" ht="28.8">
       <c r="A52" s="10" t="s">
         <v>396</v>
       </c>
@@ -13026,7 +13025,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" ht="32">
+    <row r="53" spans="1:12" ht="28.8">
       <c r="A53" s="10" t="s">
         <v>329</v>
       </c>
@@ -13054,7 +13053,7 @@
       </c>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="32">
+    <row r="54" spans="1:12" ht="28.8">
       <c r="A54" s="10" t="s">
         <v>326</v>
       </c>
@@ -13082,7 +13081,7 @@
       </c>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="32">
+    <row r="55" spans="1:12" ht="28.8">
       <c r="A55" s="10" t="s">
         <v>327</v>
       </c>
@@ -13110,7 +13109,7 @@
       </c>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" ht="32">
+    <row r="56" spans="1:12" ht="28.8">
       <c r="A56" s="10" t="s">
         <v>328</v>
       </c>
@@ -13138,7 +13137,7 @@
       </c>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" ht="32">
+    <row r="57" spans="1:12" ht="28.8">
       <c r="A57" s="10" t="s">
         <v>330</v>
       </c>
@@ -13166,7 +13165,7 @@
       </c>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" ht="32">
+    <row r="58" spans="1:12" ht="28.8">
       <c r="A58" s="10" t="s">
         <v>331</v>
       </c>
@@ -13194,7 +13193,7 @@
       </c>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" ht="32">
+    <row r="59" spans="1:12" ht="28.8">
       <c r="A59" s="10" t="s">
         <v>332</v>
       </c>
@@ -13222,7 +13221,7 @@
       </c>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" ht="32">
+    <row r="60" spans="1:12" ht="28.8">
       <c r="A60" s="10" t="s">
         <v>333</v>
       </c>
@@ -13250,7 +13249,7 @@
       </c>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" ht="32">
+    <row r="61" spans="1:12" ht="28.8">
       <c r="A61" s="10" t="s">
         <v>334</v>
       </c>
@@ -13278,7 +13277,7 @@
       </c>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" ht="32">
+    <row r="62" spans="1:12" ht="28.8">
       <c r="A62" s="10" t="s">
         <v>335</v>
       </c>
@@ -13306,7 +13305,7 @@
       </c>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" ht="48">
+    <row r="63" spans="1:12" ht="43.2">
       <c r="A63" s="10" t="s">
         <v>462</v>
       </c>
@@ -13332,7 +13331,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" ht="32">
+    <row r="64" spans="1:12" ht="28.8">
       <c r="A64" s="10" t="s">
         <v>457</v>
       </c>
@@ -13360,7 +13359,7 @@
       </c>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="1:12" ht="32">
+    <row r="65" spans="1:12" ht="28.8">
       <c r="A65" s="10" t="s">
         <v>398</v>
       </c>
@@ -13388,7 +13387,7 @@
       </c>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" ht="32">
+    <row r="66" spans="1:12" ht="28.8">
       <c r="A66" s="10" t="s">
         <v>401</v>
       </c>
@@ -13416,7 +13415,7 @@
       </c>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="1:12" ht="32">
+    <row r="67" spans="1:12" ht="28.8">
       <c r="A67" s="10" t="s">
         <v>404</v>
       </c>
@@ -13444,7 +13443,7 @@
       </c>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="1:12" ht="32">
+    <row r="68" spans="1:12" ht="28.8">
       <c r="A68" s="10" t="s">
         <v>407</v>
       </c>
@@ -13472,7 +13471,7 @@
       </c>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" ht="32">
+    <row r="69" spans="1:12" ht="28.8">
       <c r="A69" s="10" t="s">
         <v>410</v>
       </c>
@@ -13500,7 +13499,7 @@
       </c>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" ht="32">
+    <row r="70" spans="1:12" ht="28.8">
       <c r="A70" s="10" t="s">
         <v>413</v>
       </c>
@@ -13528,7 +13527,7 @@
       </c>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" ht="32">
+    <row r="71" spans="1:12" ht="28.8">
       <c r="A71" s="10" t="s">
         <v>416</v>
       </c>
@@ -13556,7 +13555,7 @@
       </c>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" ht="32">
+    <row r="72" spans="1:12" ht="28.8">
       <c r="A72" s="10" t="s">
         <v>419</v>
       </c>
@@ -13584,7 +13583,7 @@
       </c>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="1:12" ht="32">
+    <row r="73" spans="1:12" ht="28.8">
       <c r="A73" s="10" t="s">
         <v>422</v>
       </c>
@@ -13612,7 +13611,7 @@
       </c>
       <c r="L73" s="15"/>
     </row>
-    <row r="74" spans="1:12" ht="32">
+    <row r="74" spans="1:12" ht="28.8">
       <c r="A74" s="10" t="s">
         <v>425</v>
       </c>
@@ -13640,7 +13639,7 @@
       </c>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="1:12" ht="32">
+    <row r="75" spans="1:12" ht="28.8">
       <c r="A75" s="10" t="s">
         <v>428</v>
       </c>
@@ -13668,7 +13667,7 @@
       </c>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="1:12" ht="32">
+    <row r="76" spans="1:12" ht="28.8">
       <c r="A76" s="10" t="s">
         <v>431</v>
       </c>
@@ -13696,7 +13695,7 @@
       </c>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="1:12" ht="32">
+    <row r="77" spans="1:12" ht="28.8">
       <c r="A77" s="10" t="s">
         <v>434</v>
       </c>
@@ -13724,7 +13723,7 @@
       </c>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="1:12" ht="32">
+    <row r="78" spans="1:12" ht="28.8">
       <c r="A78" s="10" t="s">
         <v>437</v>
       </c>
@@ -13752,7 +13751,7 @@
       </c>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="1:12" ht="32">
+    <row r="79" spans="1:12" ht="28.8">
       <c r="A79" s="10" t="s">
         <v>440</v>
       </c>
@@ -13780,7 +13779,7 @@
       </c>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="1:12" ht="32">
+    <row r="80" spans="1:12" ht="28.8">
       <c r="A80" s="10" t="s">
         <v>443</v>
       </c>
@@ -13808,7 +13807,7 @@
       </c>
       <c r="L80" s="15"/>
     </row>
-    <row r="81" spans="1:12" ht="32">
+    <row r="81" spans="1:12" ht="28.8">
       <c r="A81" s="10" t="s">
         <v>446</v>
       </c>
@@ -13836,7 +13835,7 @@
       </c>
       <c r="L81" s="15"/>
     </row>
-    <row r="82" spans="1:12" ht="32">
+    <row r="82" spans="1:12" ht="28.8">
       <c r="A82" s="10" t="s">
         <v>449</v>
       </c>
@@ -13864,7 +13863,7 @@
       </c>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="1:12" ht="32">
+    <row r="83" spans="1:12" ht="28.8">
       <c r="A83" s="10" t="s">
         <v>452</v>
       </c>
@@ -13892,7 +13891,7 @@
       </c>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" ht="32">
+    <row r="84" spans="1:12">
       <c r="A84" s="10" t="s">
         <v>496</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="32">
+    <row r="85" spans="1:12">
       <c r="A85" s="10" t="s">
         <v>501</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="32">
+    <row r="86" spans="1:12">
       <c r="A86" s="10" t="s">
         <v>502</v>
       </c>
@@ -13961,7 +13960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="32">
+    <row r="87" spans="1:12">
       <c r="A87" s="10" t="s">
         <v>503</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="32">
+    <row r="88" spans="1:12">
       <c r="A88" s="10" t="s">
         <v>504</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="32">
+    <row r="89" spans="1:12">
       <c r="A89" s="10" t="s">
         <v>505</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="32">
+    <row r="90" spans="1:12">
       <c r="A90" s="10" t="s">
         <v>506</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="32">
+    <row r="91" spans="1:12">
       <c r="A91" s="10" t="s">
         <v>507</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="32">
+    <row r="92" spans="1:12">
       <c r="A92" s="10" t="s">
         <v>508</v>
       </c>
@@ -14099,7 +14098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="32">
+    <row r="93" spans="1:12" ht="28.8">
       <c r="A93" s="10" t="s">
         <v>509</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="32">
+    <row r="94" spans="1:12" ht="28.8">
       <c r="A94" s="10" t="s">
         <v>510</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="32">
+    <row r="95" spans="1:12" ht="28.8">
       <c r="A95" s="10" t="s">
         <v>511</v>
       </c>
@@ -14168,7 +14167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="80">
+    <row r="96" spans="1:12" ht="72">
       <c r="A96" s="10" t="s">
         <v>532</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16">
+    <row r="97" spans="1:7">
       <c r="A97" s="10" t="s">
         <v>547</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16">
+    <row r="98" spans="1:7">
       <c r="A98" s="10" t="s">
         <v>548</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16">
+    <row r="99" spans="1:7">
       <c r="A99" s="10" t="s">
         <v>549</v>
       </c>
@@ -14270,15 +14269,15 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14307,7 +14306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8">
       <c r="A2" s="21" t="s">
         <v>543</v>
       </c>
@@ -14327,7 +14326,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8">
       <c r="A3" s="21" t="s">
         <v>713</v>
       </c>
@@ -14345,7 +14344,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
         <v>544</v>
       </c>
@@ -14363,7 +14362,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>545</v>
       </c>
@@ -14381,7 +14380,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
         <v>546</v>
       </c>
@@ -14399,7 +14398,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>554</v>
       </c>
@@ -14415,7 +14414,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
         <v>555</v>
       </c>
@@ -14431,7 +14430,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>556</v>
       </c>
@@ -14447,7 +14446,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>712</v>
       </c>
@@ -14463,7 +14462,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>557</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8">
       <c r="A12" s="21" t="s">
         <v>558</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
         <v>559</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
         <v>560</v>
       </c>
@@ -14543,7 +14542,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>561</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
         <v>562</v>
       </c>
@@ -14583,7 +14582,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
         <v>563</v>
       </c>
@@ -14601,7 +14600,7 @@
       </c>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
         <v>564</v>
       </c>
@@ -14618,7 +14617,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>565</v>
       </c>
@@ -14635,7 +14634,7 @@
       </c>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>566</v>
       </c>
@@ -14652,7 +14651,7 @@
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
         <v>567</v>
       </c>
@@ -14669,7 +14668,7 @@
       </c>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
         <v>568</v>
       </c>
@@ -14689,7 +14688,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>569</v>
       </c>
@@ -14709,7 +14708,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
         <v>570</v>
       </c>
@@ -14727,7 +14726,7 @@
       </c>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8">
       <c r="A25" s="21" t="s">
         <v>571</v>
       </c>
@@ -14745,7 +14744,7 @@
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
         <v>572</v>
       </c>
@@ -14763,7 +14762,7 @@
       </c>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8">
       <c r="A27" s="21" t="s">
         <v>573</v>
       </c>
@@ -14781,7 +14780,7 @@
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8">
       <c r="A28" s="21" t="s">
         <v>574</v>
       </c>
@@ -14797,7 +14796,7 @@
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
         <v>575</v>
       </c>
@@ -14813,7 +14812,7 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
         <v>576</v>
       </c>
@@ -14829,7 +14828,7 @@
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8">
       <c r="A31" s="21" t="s">
         <v>598</v>
       </c>
@@ -14845,7 +14844,7 @@
       </c>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8">
       <c r="A32" s="21" t="s">
         <v>599</v>
       </c>
@@ -14865,7 +14864,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:8">
       <c r="A33" s="21" t="s">
         <v>600</v>
       </c>
@@ -14885,7 +14884,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16">
+    <row r="34" spans="1:8">
       <c r="A34" s="21" t="s">
         <v>601</v>
       </c>
@@ -14905,7 +14904,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16">
+    <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
         <v>607</v>
       </c>
@@ -14925,7 +14924,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16">
+    <row r="36" spans="1:8">
       <c r="A36" s="21" t="s">
         <v>608</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:8">
       <c r="A37" s="21" t="s">
         <v>609</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:8">
       <c r="A38" s="21" t="s">
         <v>610</v>
       </c>
@@ -14983,7 +14982,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" ht="16">
+    <row r="39" spans="1:8">
       <c r="A39" s="21" t="s">
         <v>611</v>
       </c>
@@ -14999,7 +14998,7 @@
       </c>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8">
       <c r="A40" s="21" t="s">
         <v>615</v>
       </c>
@@ -15015,7 +15014,7 @@
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" ht="16">
+    <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
         <v>616</v>
       </c>
@@ -15031,7 +15030,7 @@
       </c>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:8">
       <c r="A42" s="21" t="s">
         <v>617</v>
       </c>
@@ -15047,7 +15046,7 @@
       </c>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" ht="16">
+    <row r="43" spans="1:8">
       <c r="A43" s="21" t="s">
         <v>618</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16">
+    <row r="44" spans="1:8">
       <c r="A44" s="21" t="s">
         <v>632</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:8">
       <c r="A45" s="21" t="s">
         <v>633</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="s">
         <v>634</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
         <v>635</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:8">
       <c r="A48" s="21" t="s">
         <v>637</v>
       </c>
@@ -15165,7 +15164,7 @@
       </c>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" ht="16">
+    <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
         <v>638</v>
       </c>
@@ -15181,7 +15180,7 @@
       </c>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" ht="16">
+    <row r="50" spans="1:8">
       <c r="A50" s="21" t="s">
         <v>639</v>
       </c>
@@ -15197,7 +15196,7 @@
       </c>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" ht="16">
+    <row r="51" spans="1:8">
       <c r="A51" s="21" t="s">
         <v>640</v>
       </c>
@@ -15213,7 +15212,7 @@
       </c>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:8" ht="16">
+    <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
         <v>641</v>
       </c>
@@ -15229,7 +15228,7 @@
       </c>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" ht="16">
+    <row r="53" spans="1:8">
       <c r="A53" s="21" t="s">
         <v>642</v>
       </c>
@@ -15249,7 +15248,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:8">
       <c r="A54" s="21" t="s">
         <v>643</v>
       </c>
@@ -15269,7 +15268,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="s">
         <v>647</v>
       </c>
@@ -15289,7 +15288,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16">
+    <row r="56" spans="1:8">
       <c r="A56" s="21" t="s">
         <v>648</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
         <v>649</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16">
+    <row r="58" spans="1:8">
       <c r="A58" s="21" t="s">
         <v>650</v>
       </c>
@@ -15347,7 +15346,7 @@
       </c>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" ht="16">
+    <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
         <v>651</v>
       </c>
@@ -15365,7 +15364,7 @@
       </c>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" ht="16">
+    <row r="60" spans="1:8">
       <c r="A60" s="21" t="s">
         <v>652</v>
       </c>
@@ -15382,7 +15381,7 @@
       </c>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" ht="16">
+    <row r="61" spans="1:8">
       <c r="A61" s="21" t="s">
         <v>653</v>
       </c>
@@ -15399,7 +15398,7 @@
       </c>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" ht="16">
+    <row r="62" spans="1:8">
       <c r="A62" s="21" t="s">
         <v>659</v>
       </c>
@@ -15416,7 +15415,7 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" ht="16">
+    <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
         <v>660</v>
       </c>
@@ -15433,7 +15432,7 @@
       </c>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:8" ht="16">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="s">
         <v>661</v>
       </c>
@@ -15453,7 +15452,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16">
+    <row r="65" spans="1:8">
       <c r="A65" s="21" t="s">
         <v>662</v>
       </c>
@@ -15470,7 +15469,7 @@
       </c>
       <c r="H65" s="16"/>
     </row>
-    <row r="66" spans="1:8" ht="16">
+    <row r="66" spans="1:8">
       <c r="A66" s="21" t="s">
         <v>663</v>
       </c>
@@ -15487,7 +15486,7 @@
       </c>
       <c r="H66" s="16"/>
     </row>
-    <row r="67" spans="1:8" ht="16">
+    <row r="67" spans="1:8">
       <c r="A67" s="21" t="s">
         <v>670</v>
       </c>
@@ -15507,7 +15506,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16">
+    <row r="68" spans="1:8">
       <c r="A68" s="21" t="s">
         <v>671</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16">
+    <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
         <v>672</v>
       </c>
@@ -15567,17 +15566,17 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15598,7 +15597,7 @@
       </c>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>494</v>
       </c>
@@ -15627,7 +15626,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>495</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="10" t="s">
         <v>239</v>
       </c>
@@ -15700,9 +15699,9 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>673</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>674</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8">
       <c r="A3" s="21" t="s">
         <v>675</v>
       </c>
@@ -15762,7 +15761,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
         <v>676</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32">
+    <row r="5" spans="1:8" ht="28.8">
       <c r="A5" s="21" t="s">
         <v>677</v>
       </c>
@@ -15802,7 +15801,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
         <v>678</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>679</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32">
+    <row r="8" spans="1:8" ht="28.8">
       <c r="A8" s="21" t="s">
         <v>680</v>
       </c>
@@ -15862,7 +15861,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>681</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>682</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32">
+    <row r="11" spans="1:8" ht="28.8">
       <c r="A11" s="21" t="s">
         <v>683</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8">
       <c r="A12" s="21" t="s">
         <v>684</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
         <v>685</v>
       </c>
@@ -15962,7 +15961,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="21" t="s">
         <v>686</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>687</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
         <v>688</v>
       </c>
@@ -16022,7 +16021,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32">
+    <row r="17" spans="1:8" ht="28.8">
       <c r="A17" s="21" t="s">
         <v>693</v>
       </c>
@@ -16042,7 +16041,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
         <v>694</v>
       </c>
